--- a/Data/Products_Lazada.xlsx
+++ b/Data/Products_Lazada.xlsx
@@ -19,6 +19,9 @@
     <x:sheet name="shirts-for-men" sheetId="7" r:id="rId7"/>
     <x:sheet name="dress-for-women" sheetId="8" r:id="rId8"/>
     <x:sheet name="bag-for-women" sheetId="9" r:id="rId9"/>
+    <x:sheet name="shoes" sheetId="10" r:id="rId10"/>
+    <x:sheet name="bags" sheetId="11" r:id="rId11"/>
+    <x:sheet name="accessories" sheetId="12" r:id="rId12"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="0"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="903">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="1254">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -2735,6 +2738,1059 @@
   </x:si>
   <x:si>
     <x:t>197 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>384 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 New Korean Style Women's Shoes Fashion Sneakers Breathable Soft Sole Running Shoes Ladies Casual Shoes Cross-border</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/2025-new-korean-style-womens-shoes-fashion-sneakers-breathable-soft-sole-running-shoes-ladies-casual-shoes-cross-border-i3422192944.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Shoes Women's 2023 Spring New Versatile Platform Shoes Korean Style for Children and Students ins Harajuku Style Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/white-shoes-womens-2023-spring-new-versatile-platform-shoes-korean-style-for-children-and-students-ins-harajuku-style-sneakers-i2630087088.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 78%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New 2024 Spring Women's Sneakers Lightweight Sport Shoes with Thick Sole and Internal Heel Increase for a Slimming Leg Effect Casual Style Rubber Outsole and Mesh Interior</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/new-2024-spring-womens-sneakers-lightweight-sport-shoes-with-thick-sole-and-internal-heel-increase-for-a-slimming-leg-effect-casual-style-rubber-outsole-and-mesh-interior-i3109155636.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.1K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2023 New Fashionable Cotton-Padded Shoes for Women Autumn and Winter Women's Shoes Fleece-Lined Sneakers High-Top Women's Shoes for Students Korean Style Clunky Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/2023-new-fashionable-cotton-padded-shoes-for-women-autumn-and-winter-womens-shoes-fleece-lined-sneakers-high-top-womens-shoes-for-students-korean-style-clunky-sneakers-i2898874651.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 63%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>174 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>women shoes Women's scholl shoes scholl ladies shoes woman Kasut wanita Scholl Ladies Casual Shoe Kamila - DL6691 Women Sneakers Women Boat Shoes &amp; Loafers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/women-shoes-womens-scholl-shoes-scholl-ladies-shoes-woman-kasut-wanita-scholl-ladies-casual-shoe-kamila-dl6691-women-sneakers-women-boat-shoes-loafers-i2695332100.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$12.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>207 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>scholl women shoes scholl ladies shoes Scholl Women's Casual Shoes Scholl Sneakers Women Boat Shoes Kasut wanita women shoes sport Sneakers Lifestyle Casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/scholl-women-shoes-scholl-ladies-shoes-scholl-womens-casual-shoes-scholl-sneakers-women-boat-shoes-kasut-wanita-women-shoes-sport-sneakers-lifestyle-casual-shoes-i2931001734.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$10.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ewtry Women's Casual Sneakers Glitter Squins Low Top Lace Up Platform Sneakers for Women Ladies and Teen Girls EWT-MY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/ewtry-womens-casual-sneakers-glitter-squins-low-top-lace-up-platform-sneakers-for-women-ladies-and-teen-girls-ewt-my-i3038939634.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/women-shoes-womens-scholl-shoes-scholl-ladies-shoes-woman-kasut-wanita-scholl-ladies-casual-shoe-kamila-dl6691-women-sneakers-women-boat-shoes-loafers-i2695098970.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 72%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Eircan Casual Women's Shoes Breathable Running Shoes Retro Low Top Sneakers Comfortable Spring Autumn Summer Seasonal Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/eircan-casual-womens-shoes-breathable-running-shoes-retro-low-top-sneakers-comfortable-spring-autumn-summer-seasonal-footwear-i3173304901.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8.33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zhao Lusi Maillard Baseball Star Captain Dad Shoes Women's Korean Style Retro Easy Matching Mesh Casual Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/zhao-lusi-maillard-baseball-star-captain-dad-shoes-womens-korean-style-retro-easy-matching-mesh-casual-sneaker-i3275244394.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LOMOGI Superme Women Sneaker Shoes Sport kasut perempuan Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/lomogi-superme-women-sneaker-shoes-sport-kasut-perempuan-running-shoes-i2787501656.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Full Black Leather Surface Waterproof Sport Shoes Comfortable Soft Bottom Work Shoes for Women Anti-Slip Kitchen Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/full-black-leather-surface-waterproof-sport-shoes-comfortable-soft-bottom-work-shoes-for-women-anti-slip-kitchen-shoes-i3420211477.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DOSREAL Hot Sale Dance Shoes For Woman Practice Shoes Modern Dance Jazz Shoes Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/dosreal-hot-sale-dance-shoes-for-woman-practice-shoes-modern-dance-jazz-shoes-sneakers-i320798496.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14.55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 58%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Sport Shoes Breathable Mesh Flat Bottom Lightweight Running Travel Sneakers Spring Summer New Style MISS Seacy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/womens-sport-shoes-breathable-mesh-flat-bottom-lightweight-running-travel-sneakers-spring-summer-new-style-miss-seacy-i3415807400.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Original Design Heart Angel Bear with Wings Thick Bottom Dad Sneakers Casual Sport Shoes round Toe Mesh Inner Lining Synthetic Leather</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/original-design-heart-angel-bear-with-wings-thick-bottom-dad-sneakers-casual-sport-shoes-round-toe-mesh-inner-lining-synthetic-leather-i3282208890.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual White Sneakers Women's Spring Autumn Youth Fashion Work Student Sports Flat Shoes Korean Style round Toe Low Heel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/casual-white-sneakers-womens-spring-autumn-youth-fashion-work-student-sports-flat-shoes-korean-style-round-toe-low-heel-i3174351716.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 New Arrival Pitaya Girl Pink Bread Shoes Student Shoes Casual Versatile Sneakers Breathable Trendy Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/2024-new-arrival-pitaya-girl-pink-bread-shoes-student-shoes-casual-versatile-sneakers-breathable-trendy-sneaker-i3096889373.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Old Beijing Cloth Shoes Women's Flat Bottom Breathable Summer Casual Shoes Embroidered Slip-On round Toe Rubber Outsole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/new-old-beijing-cloth-shoes-womens-flat-bottom-breathable-summer-casual-shoes-embroidered-slip-on-round-toe-rubber-outsole-i3341336347.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Da Dong Fang Thick Bottom Dad Shoes Women's Sporty Casual Sneakers Elementary School Students Show Feet Versatile Fall New Style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/da-dong-fang-thick-bottom-dad-shoes-womens-sporty-casual-sneakers-elementary-school-students-show-feet-versatile-fall-new-style-i3340122377.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$5.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>666 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Student Moral Training Shoes Female White Shoes 2024 Autumn New Arrival Minority All-Match Milk Fufu Light Pink Casual Board Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/student-moral-training-shoes-female-white-shoes-2024-autumn-new-arrival-minority-all-match-milk-fufu-light-pink-casual-board-shoes-i3214144396.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>474 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spring Autumn Women's Slip-On Breathable Anti-Slip Comfortable Soft Bottom Leisure Shoes Chinese Style Flat Heel round Toe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/spring-autumn-womens-slip-on-breathable-anti-slip-comfortable-soft-bottom-leisure-shoes-chinese-style-flat-heel-round-toe-i3388784476.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$7.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Women Platform Shoes Women Sport Running Shoes Thick Bottom Ladies Wedges Running Outdoor Krasovki Women Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sneakers-women-platform-shoes-women-sport-running-shoes-thick-bottom-ladies-wedges-running-outdoor-krasovki-women-sneakers-i308632031.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8.01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>158 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Silver Color Breathable Women's Casual Sport Shoes Thick Bottom Slip-On Versatile Comfortable round Toe Rubber Outsole Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/silver-color-breathable-womens-casual-sport-shoes-thick-bottom-slip-on-versatile-comfortable-round-toe-rubber-outsole-shoes-i3275239801.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$5.74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Shoes Women's Shoes Leather Surface 2023 New Autumn and Summer Easiest for Match Casual Show Feet Small Sneaker Flats Internet-Famous Skateboard Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/white-shoes-womens-shoes-leather-surface-2023-new-autumn-and-summer-easiest-for-match-casual-show-feet-small-sneaker-flats-internet-famous-skateboard-shoes-i3172445326.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Old Beijing Cloth Shoes Women's Official Flagship Store New Arrival Soft Bottom Work Shoes Parka Summer Mothers' Black Gommino</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/old-beijing-cloth-shoes-womens-official-flagship-store-new-arrival-soft-bottom-work-shoes-parka-summer-mothers-black-gommino-i3102819599.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$7.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HuaFuAgan Women's 2024 Retro German Training Shoes Real Leather Casual Sports Flat Shoes With Cross Strap and Deep Mouth Opening</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/huafuagan-womens-2024-retro-german-training-shoes-real-leather-casual-sports-flat-shoes-with-cross-strap-and-deep-mouth-opening-i3128818114.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>601 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers for Women Small White Shoes Spring and Autumn New Leisure Sports Flat Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sneakers-for-women-small-white-shoes-spring-and-autumn-new-leisure-sports-flat-shoes-i3206612458.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $0.47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Women's Dad Shoes High Aesthetic Value Versatile Ins Trend 2023 Spring Autumn New Arrival Lightweight Sports Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/casual-womens-dad-shoes-high-aesthetic-value-versatile-ins-trend-2023-spring-autumn-new-arrival-lightweight-sports-shoes-i3060057502.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8.53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shallow Mouth Small Fragrance Style Women's Shoes Beijjing Old Style Slip-On Flat Bottom Casual Fabric Shoes Mom Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/shallow-mouth-small-fragrance-style-womens-shoes-beijjing-old-style-slip-on-flat-bottom-casual-fabric-shoes-mom-shoes-i3388830226.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Black Canvas Shoes Unisex Breathable Lightweight Anti-slip Wear-resistant Supportive Absorbent Shockproof Low Top Rubber Outsole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/black-canvas-shoes-unisex-breathable-lightweight-anti-slip-wear-resistant-supportive-absorbent-shockproof-low-top-rubber-outsole-i2038024099.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>324 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Anti-Slip Soft Bottom Mom Shoes Comfortable Slip-On Women's Mesh Uppers Breathable Beijing Cloth Shoes Casual Flat Heel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/new-anti-slip-soft-bottom-mom-shoes-comfortable-slip-on-womens-mesh-uppers-breathable-beijing-cloth-shoes-casual-flat-heel-i3388660853.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hy908 New Casual Board Shoes 2025 Autumn Fashion Breathable Shoes Raise the Bottom Student Mid-Top Korean Fashion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/hy908-new-casual-board-shoes-2025-autumn-fashion-breathable-shoes-raise-the-bottom-student-mid-top-korean-fashion-i3393578293.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 77%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LZD 102Scholl Ladies Casual Shoe Kamila Sneaker - LC1268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/lzd-102scholl-ladies-casual-shoe-kamila-sneaker-lc1268-i3126409461.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$14.19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 23%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's sports shoes. New high-top sneakers for 2023 summer. Fashion casual shoes. Breathable and fashionable men's flat shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mens-sports-shoes-new-high-top-sneakers-for-2023-summer-fashion-casual-shoes-breathable-and-fashionable-mens-flat-shoes-i2693254077.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Men's Backpacks backpack for men Bag Men Laptop Backpack Waterproof Travel Backpack Business Bag College Backpack Casual Shoulder Bag Anti Theft Back Pack School Bag for Men Women back pack bag for men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-mens-backpacks-backpack-for-men-bag-men-laptop-backpack-waterproof-travel-backpack-business-bag-college-backpack-casual-shoulder-bag-anti-theft-back-pack-school-bag-for-men-women-back-pack-bag-for-men-i2447873778.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$12.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SG Ready Stocks] 10L /15L 20L/30L Ocean Pack Dry Bag Travel Fishing Holiday Usage Multipurpose Usage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-ready-stocks-10l-15l-20l30l-ocean-pack-dry-bag-travel-fishing-holiday-usage-multipurpose-usage-i1673969275.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$5.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 21%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Foldable Shopping Bag/Recycle Eco Bag/Shopping Bag Customization</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/foldable-shopping-bagrecycle-eco-bagshopping-bag-customization-i3115562820.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>575 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50L Capacity Men Army Military Tactical Large Backpack Waterproof Outdoor Sport Hiking Camping Hunting 3D Rucksack Bags For Men army backpack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/50l-capacity-men-army-military-tactical-large-backpack-waterproof-outdoor-sport-hiking-camping-hunting-3d-rucksack-bags-for-men-army-backpack-i2501183037.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$13.77</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterproof Dry Bag Backpack Professional Ocean Pack Large size hiking Diving Bag Travel Outdoor Sling Shoulder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/waterproof-dry-bag-backpack-professional-ocean-pack-large-size-hiking-diving-bag-travel-outdoor-sling-shoulder-i2955288906.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QIYUE Tote Bag for Women, Lightweight Puffy Duffel Bag with Compartments, Quilted Shoulder Bag Handbag for Travel, Work，Gym</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/qiyue-tote-bag-for-women-lightweight-puffy-duffel-bag-with-compartments-quilted-shoulder-bag-handbag-for-travel-workgym-i3414986402.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved $25.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 New Commuter Large Capacity Women's Bag Striped Canvas Shoulder Crossbody Handbag Tote Bag Single Shoulder Storage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/2024-new-commuter-large-capacity-womens-bag-striped-canvas-shoulder-crossbody-handbag-tote-bag-single-shoulder-storage-i3378366212.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>434 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>470 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tomvorks Mesh Drawstring Storage Sack Portable Camping Gear Bag Lightweight Bag for Camping Hiking Traveling with Nylon Material (S Blue)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/tomvorks-mesh-drawstring-storage-sack-portable-camping-gear-bag-lightweight-bag-for-camping-hiking-traveling-with-nylon-material-s-blue-i3409496276.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 31%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【FREE Noodle Gift Set Worth $19.90】Cai Lin Ji Limited Edition Tote Bag (2 Designs, 38x34cm, Eco Canvas)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/free-noodle-gift-set-worth-1990cai-lin-ji-limited-edition-tote-bag-2-designs-38x34cm-eco-canvas-i3428069925.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$9.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✨_xD83D__xDC96_ WHOLESALE ✨_xD83D__xDC96_♻️ (LARGE) FOLDABLE RECYCLE BAG l Tote Bag l Shopping Bag l Reusable ECO Bag l Children Day Gifts l Teachers Day Gift l Teacher Bag ✨ Hello Kitty Elmo Melody Stella Bunny Summiko Tokidoki Gudetama l Carrier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/wholesale-large-foldable-recycle-bag-l-tote-bag-l-shopping-bag-l-reusable-eco-bag-l-children-day-gifts-l-teachers-day-gift-l-teacher-bag-hello-kitty-elmo-melody-stella-bunny-summiko-tokidoki-gudetama-l-carrier-i2892593982.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>504 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>❤️Foldable Recycle Bag❤️Eco-Friendly Shopping bag❤️SG Seller❤️ Groceries Bag Children day gift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/foldable-recycle-bageco-friendly-shopping-bagsg-seller-groceries-bag-children-day-gift-i1629866259.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SG Local] Knit bag/ Lunch bag/ Shopping Bag / Portable Small Eco Bag / Tote Bag Women Handbags Gift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-local-knit-bag-lunch-bag-shopping-bag-portable-small-eco-bag-tote-bag-women-handbags-gift-i3368556038.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SGFOMO Foldable Backpack Ultralight 20L Cycling Hiking Backpacks Folding Bag Daypack Small Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sgfomo-foldable-backpack-ultralight-20l-cycling-hiking-backpacks-folding-bag-daypack-small-travel-i3127081033.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T2P NO MOQ Packable Backpack Bag Foldable Hiking Daypack Ultralight Collapsible Water Resistant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/t2p-no-moq-packable-backpack-bag-foldable-hiking-daypack-ultralight-collapsible-water-resistant-i2962377640.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>❤️[Local Seller] shopping bag / grocery bag / storage bag / tote bag/recycle bag tote handbag /Trendy, Chic, Instagrammable eco friendly large and small capacity waterproof, foldable woven reusable shopping bag / grocery bag / storage bag / tote handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/local-seller-shopping-bag-grocery-bag-storage-bag-tote-bagrecycle-bag-tote-handbag-trendy-chic-instagrammable-eco-friendly-large-and-small-capacity-waterproof-foldable-woven-reusable-shopping-bag-grocery-bag-storage-bag-tote-handbag-i2110923807.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SG SELLER]Giant Duffel Bag For Travel Storage Sports Durable Water Resistant house moving delivery all can [179] [221]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-sellergiant-duffel-bag-for-travel-storage-sports-durable-water-resistant-house-moving-delivery-all-can-179-221-i2447517599.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>105 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tote Bags Woven CanvasTote Bag | LITTLE MISS DESIGNS | Custom Gifts Personalised Children Tote Bags Custom Bag for Children Birthday Gifts Pets Bag | MR MEN TOTE BAG Fast Shipping</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/tote-bags-woven-canvastote-bag-little-miss-designs-custom-gifts-personalised-children-tote-bags-custom-bag-for-children-birthday-gifts-pets-bag-mr-men-tote-bag-fast-shipping-i2884174188.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOCK THREE Reusable Wet/Dry Waterproof Tote Bag Swimsuit Wet Clothes Laundry Bag Baby Diapers and Stroller Pouch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/flock-three-reusable-wetdry-waterproof-tote-bag-swimsuit-wet-clothes-laundry-bag-baby-diapers-and-stroller-pouch-i1855852845.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$8.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $0.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>609 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tote Bag Handbag Cute Lunch Bag Goodie Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/tote-bag-handbag-cute-lunch-bag-goodie-bag-i3039282803.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>232 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halloween MOJOYCE Harajuku Shoulder Bag Simple Shopping Bag Solid Color Satchel Bags Large Capacity Casual Zipper Soft Cloth for TeenagerChristmas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/halloween-mojoyce-harajuku-shoulder-bag-simple-shopping-bag-solid-color-satchel-bags-large-capacity-casual-zipper-soft-cloth-for-teenagerchristmas-i3184579153.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$7.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 61%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Cotton Canvas Bag Tote bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/shoulder-cotton-canvas-bag-tote-bag-i2655897514.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>93 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>169 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TINYAT Women's Summer Canvas Tote Bags Beach Shopping Bag Casual Cotton Handbag for Vacation - Stylish Beach Accessories</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/tinyat-womens-summer-canvas-tote-bags-beach-shopping-bag-casual-cotton-handbag-for-vacation-stylish-beach-accessories-i3431820267.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved $8.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Folding Hiking Backpack Packable Lightweight Travel Unisex Sports Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/folding-hiking-backpack-packable-lightweight-travel-unisex-sports-bag-i1315438822.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>127 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mini Tote Bag Lightweight Short Strap NAVY GREEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mini-tote-bag-lightweight-short-strap-navy-green-i2856814043.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>100% Authentic Original Brand F58292 City Zip Tote Signature Canvas Women Handbag Shopping Shoulder Bag, Commodity Brand Packaging Size: 29*27*14cm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/100-authentic-original-brand-f58292-city-zip-tote-signature-canvas-women-handbag-shopping-shoulder-bag-commodity-brand-packaging-size-292714cm-i3380976816.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$59.48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 24%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEENCA Waterproof Nylon Gym Bags Outdoor Sports Yoga Training Handbag Men Women Fitness Travel Storage Crossbody Sport Swimming Bags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/neenca-waterproof-nylon-gym-bags-outdoor-sports-yoga-training-handbag-men-women-fitness-travel-storage-crossbody-sport-swimming-bags-i3280177920.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$7.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SG SELLER Double Side Use Canvas Bag teachers day gifts Ladies Handbags gift ideas Canvas Tote Bag Shopping Bag Reusable Travel Bag Reversible Canvas Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-seller-double-side-use-canvas-bag-teachers-day-gifts-ladies-handbags-gift-ideas-canvas-tote-bag-shopping-bag-reusable-travel-bag-reversible-canvas-bag-i2727062797.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$7.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>400 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PUNKSTAR Portable Reusable Foldable Shopping Eco Tote Grocery Bags Water resistant Duffle Large Capacity for Shopping Camp Travel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/punkstar-portable-reusable-foldable-shopping-eco-tote-grocery-bags-water-resistant-duffle-large-capacity-for-shopping-camp-travel-i3009544629.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_{SG Seller}Canvas Bag Gift bag Cute Cartoon Bear Peach Mini Girl Heart Tote</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-sellercanvas-bag-gift-bag-cute-cartoon-bear-peach-mini-girl-heart-tote-i2868555449.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Army Bag / Hiking Backpack | 45L Large Size Bag | Spine Protection Bag | NS Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/army-bag-hiking-backpack-45l-large-size-bag-spine-protection-bag-ns-bag-i2901072121.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$28.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME ELEC-Desk Side Vertical Laptop Stand,No Drill Laptop Desktop Mount,Hanging Laptop Holder for Desk Side,Clamp on Desk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/home-elec-desk-side-vertical-laptop-standno-drill-laptop-desktop-mounthanging-laptop-holder-for-desk-sideclamp-on-desk-i3108839101.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$15.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill belt for women Belt Women's Leather Belt Ladies Skinny Belt Women's All-Match Belt Fashion Casual Thin Belt Waist Belt with Zinc Alloy Buckle for Jeans Pants ladies belt Women Belts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-belt-for-women-belt-womens-leather-belt-ladies-skinny-belt-womens-all-match-belt-fashion-casual-thin-belt-waist-belt-with-zinc-alloy-buckle-for-jeans-pants-ladies-belt-women-belts-i2446854704.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 74%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>889 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women Belts Fashion Thin Belts Double Sided Use Elegant Thin Belt Gold Metal Hook Buckle Adjustable Girls Ladies Long Straps Waistbands Dress Coat Alloy Buckle Letter Buckle Gold Decorations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-women-belts-fashion-thin-belts-double-sided-use-elegant-thin-belt-gold-metal-hook-buckle-adjustable-girls-ladies-long-straps-waistbands-dress-coat-alloy-buckle-letter-buckle-gold-decorations-i2977220426.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.72</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women Belts Fashion Thin Belts Elegant Thin Belt Gold Metal Hook Buckle Adjustable Girls Ladies Long Straps Waistbands Dress Coat Alloy Buckle Gold Decorations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-women-belts-fashion-thin-belts-elegant-thin-belt-gold-metal-hook-buckle-adjustable-girls-ladies-long-straps-waistbands-dress-coat-alloy-buckle-gold-decorations-i2884895817.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.76</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women Belts Waist Belt Ladies Casual Waistband Alloy Pin Buckle Belts PU Leather Belts Women’s Waist Belt Adjustable Length Dress Belt Vintage Jeans Belt for Women Girls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-women-belts-waist-belt-ladies-casual-waistbandalloy-pin-buckle-belts-pu-leather-belts-womens-waist-belt-adjustable-length-dress-belt-vintage-jeans-belt-for-women-girls-i2446741928.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women's Belt Leather Belt Ladies Skinny Belt Women's All-Match Belt Fashion Casual Thin Belt Waist Belt with Zinc Alloy Buckle for Jeans Pants Gold Decorations Leisure Belt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-womens-belt-leather-belt-ladies-skinny-belt-womens-all-match-belt-fashion-casual-thin-belt-waist-belt-with-zinc-alloy-buckle-for-jeans-pants-gold-decorations-leisure-belt-i3378097196.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$4.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women Belts Double Pearl Belts Casual Thin Belt Female Retro Black Red PU Leather Belt Dress Skirt Waist Elegant Pearl Leather Belts Elastic Thin Belts Ladies Designer Waistband</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-women-belts-double-pearl-belts-casual-thin-belt-female-retro-black-red-pu-leather-belt-dress-skirt-waist-elegant-pearl-leather-belts-elastic-thin-belts-ladies-designer-waistband-i2446928351.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$2.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LouisWill Women Belts Fashion Double Sided Use Leather Belt Elegant Golden Square Buckle Design Adjustable Girls Ladies Long Straps Waistbands Dress Coat Alloy Buckle Letter Buckle Gold Decorations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/louiswill-women-belts-fashion-double-sided-use-leather-belt-elegant-golden-square-buckle-design-adjustable-girls-ladies-long-straps-waistbands-dress-coat-alloy-buckle-letter-buckle-gold-decorations-i3071228317.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.82</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(FOREVER PREMIUM) Men Women Belt Wide Mesh Elastic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/forever-premium-men-women-belt-wide-mesh-elastic-i2936564600.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$3.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HolidayQueen Thin Belt Woman Knotted Decoration with Sweater Dress Suit Waist Fashion All-match Coat Small Belt Free Shipping HQ0273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/holidayqueen-thin-belt-woman-knotted-decoration-with-sweater-dress-suit-waist-fashion-all-match-coat-small-belt-free-shipping-hq0273-i1932534425.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 33%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[SG] TechFave Premium Aluminium Laptop Stand Adjustable/Foldable/Portable/Universal Fit For MacBook/Laptops</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/sg-techfave-premium-aluminium-laptop-stand-adjustablefoldableportableuniversal-fit-for-macbooklaptops-i1877519306.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READ Korean Elegant Women Dress Pearl Belt Adjustable Metal Chain Belt Jewelry Decoration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/read-korean-elegant-women-dress-pearl-belt-adjustable-metal-chain-belt-jewelry-decoration-i2365287111.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>74 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JARUSEAT MR04 Laptop Stand/Monitor Stand 3 Height Adjustable Monitor Stand Ergonomic Metal Monitor Riser Stand with Mesh Platform</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/jaruseat-mr04-laptop-standmonitor-stand-3-height-adjustable-monitor-stand-ergonomic-metal-monitor-riser-stand-with-mesh-platform-i3297944116.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 41%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ODOROKU 4 in 1 Adjustable Vertical Laptop Stand Holder Double Triple Vertical Laptop Stand Supports Laptops Tablet Black White Pink</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/odoroku-4-in-1-adjustable-vertical-laptop-stand-holder-double-triple-vertical-laptop-stand-supports-laptops-tablet-black-white-pink-i3301787758.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATEYOYO Fashion Women Belts Retro Belt Elegant Slim Belt Cow Leather Belt Adjustable Girls Ladies Long Straps Waistbands Dress Coat Alloy Buckle Letter Buckle Leisure Belt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mateyoyo-fashion-women-belts-retro-belt-elegant-slim-belt-cow-leather-belt-adjustable-girls-ladies-long-straps-waistbands-dress-coat-alloy-buckle-letter-buckle-leisure-belt-i3399757369.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>COWATHER Reversible Rotated Leather Casual Belts for Men - 1.3" wide Genuine Leather Belts - Fashion Classic Dress Durable Belts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/cowather-reversible-rotated-leather-casual-belts-for-men-13-wide-genuine-leather-belts-fashion-classic-dress-durable-belts-i3269633227.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MATEYOYO Women Belts Fashion Double Sided Use Leather Belt Elegant Golden Square Buckle Design Adjustable Girls Ladies Long Straps Waistbands Dress Coat Alloy Buckle Letter Buckle Gold Decorations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mateyoyo-women-belts-fashion-double-sided-use-leather-belt-elegant-golden-square-buckle-design-adjustable-girls-ladies-long-straps-waistbands-dress-coat-alloy-buckle-letter-buckle-gold-decorations-i3071431055.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$6.92</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nillkin Bolster/Bolster Plus Portable Stand for Laptop, Tablet, iPad, Mobile phones</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/nillkin-bolsterbolster-plus-portable-stand-for-laptop-tablet-ipad-mobile-phones-i2046844781.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$12.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 13%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alienware X17R2 Aluminum Alloy Notebook Stand Gaming Laptop Heat Sink Riser Storage Foldable Height Adjustable Suspension Cooling Rack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/alienware-x17r2-aluminum-alloy-notebook-stand-gaming-laptop-heat-sink-riser-storage-foldable-height-adjustable-suspension-cooling-rack-i3427599296.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$15.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Squirrey Bace Laptop Tablet Vertical Adjustable Docking Stand [ Holder, Multiple Slot, &amp;lt;14", Lightweight, Storage, Office, Workspace, Desk Accessory ]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/squirrey-bace-laptop-tablet-vertical-adjustable-docking-stand-holder-multiple-slot-14-lightweight-storage-office-workspace-desk-accessory-i3167430099.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$16.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Msvii Aluminum Alloy Notebook Stand Portable Foldable Support Bracket for Thin Gaming Laptop Tablet Heat Dissipation Desktop Bracket</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/msvii-aluminum-alloy-notebook-stand-portable-foldable-support-bracket-for-thin-gaming-laptop-tablet-heat-dissipation-desktop-bracket-i3425021069.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$16.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $0.51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>360 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MC N86 Foldable Laptop Stand 360°Rotation Notebook Aluminum Alloy Holder Portable Laptop Bracket with Heat Dissipation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mc-n86-foldable-laptop-stand-360rotation-notebook-aluminum-alloy-holder-portable-laptop-bracket-with-heat-dissipation-i3050925866.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$48.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $2.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plus size Oxhide Full Grain Leather Belt -30mm /3cm - Casual Mens Belt- Belt with Jean Black /Brown/Tan-C21 HPOX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/plus-size-oxhide-full-grain-leather-belt-30mm-3cm-casual-mens-belt-belt-with-jean-black-browntan-c21-hpox-i535658956.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$20.61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $1.03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/squirrey-bace-laptop-tablet-vertical-adjustable-docking-stand-holder-multiple-slot-14-lightweight-storage-office-workspace-desk-accessory-i3167351833.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt Women - Belt Women Leather - Plus Size Available - Women belt in Full Grain Leather - Ladies Leather Belt - Oxhide -HPOX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/belt-women-belt-women-leather-plus-size-available-women-belt-in-full-grain-leather-ladies-leather-belt-oxhide-hpox-i324708237.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$17.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $0.86</x:t>
+  </x:si>
+  <x:si>
+    <x:t>170 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belt Women - Women Leather Designer Belt - Plus Size Available - Gold Buckle Women belt in Full Grain Leather - Designer Ladies Leather Belt in Black Color - Oxhide HPOX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/belt-women-women-leather-designer-belt-plus-size-available-gold-buckle-women-belt-in-full-grain-leather-designer-ladies-leather-belt-in-black-color-oxhide-hpox-i2466307185.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$26.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $1.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mens Automatic Leather Belt - Full Grain Leather Ratchet Belt - Men Leather Belt with Auto Lock Buckle - TRACK BELT - Belt without hole - ABB5C Oxhide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/mens-automatic-leather-belt-full-grain-leather-ratchet-belt-men-leather-belt-with-auto-lock-buckle-track-belt-belt-without-hole-abb5c-oxhide-i596924490.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$35.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $1.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ULTi AURA RGB Vesa Laptop Holder | C74</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/ulti-aura-rgb-vesa-laptop-holder-c74-i3135491502.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POUT EYES 3 LIFT- A Height Adjustable Aluminum Standing Laptop Riser For 10 to 17inch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/pout-eyes-3-lift-a-height-adjustable-aluminum-standing-laptop-riser-for-10-to-17inch-i2632179981.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$112.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EverDesk Adjustable Laptop Stand - 5 height, Lightweight, Foldable, Portable with Non-Slip Rubber Base</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/everdesk-adjustable-laptop-stand-5-height-lightweight-foldable-portable-with-non-slip-rubber-base-i265418388.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 26%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>359 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ULTI Laptop Mount Tray Desk-ACC02 BLACK (Brought to you by Global Cybermind)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/ulti-laptop-mount-tray-desk-acc02-black-brought-to-you-by-global-cybermind-i2771177851.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$29.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORDWEY New Gold Elevation Angle 20.58 ° Adjustable Aluminum With Expansion Base Laptop Stand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/lordwey-new-gold-elevation-angle-2058-adjustable-aluminum-with-expansion-base-laptop-stand-i3381214932.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$59.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coin save $2.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banrique PC stand [supervised by physical therapist] Foldable, 6-level adjustable, lightweight design, heat dissipating, made of aluminum alloy (silver)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/banrique-pc-stand-supervised-by-physical-therapist-foldable-6-level-adjustable-lightweight-design-heat-dissipating-made-of-aluminum-alloy-silver-i3259583655.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$33.56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hobinavi laptop stand, foldable, compact, thermal runaway prevention, 7-step angle adjustment nts001-gy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/hobinavi-laptop-stand-foldable-compact-thermal-runaway-prevention-7-step-angle-adjustment-nts001-gy-i3259667333.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$44.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CM ERGO AIR SLIM NOTEBOOK STAND</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/cm-ergo-air-slim-notebook-stand-i2262389361.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belmond Laptop Stand Vertical Aluminum Alloy Material [PC Sukkiri-kun] PC Stand 2 Units Storage Width Adjustable Clamshell Tablet MacBook Pro Air/Mac mini/iPad B091401 Black</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/belmond-laptop-stand-vertical-aluminum-alloy-material-pc-sukkiri-kun-pc-stand-2-units-storage-width-adjustable-clamshell-tablet-macbook-pro-airmac-miniipad-b091401-black-i3259656378.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$65.83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MOFT Cooling Stand Laptop stand with graphene Adhesive type vegan leather Reapplicable MacBook compatible Improved durability Heat dissipation Effect Instant setup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/moft-cooling-stand-laptop-stand-with-graphene-adhesive-type-vegan-leather-reapplicable-macbook-compatible-improved-durability-heat-dissipation-effect-instant-setup-i3190467056.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$88.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baowor Desk Side Storage Clamp Desk Storage No drilling required 3-minute installation Desk Side Holder Laptop Stand Under Desk Storage Desk Side Rack Steel made Documents Laptop Tablet Phone Remote Control Stationery Cutlery Storage Organization ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/baowor-desk-side-storage-clamp-desk-storage-no-drilling-required-3-minute-installation-desk-side-holder-laptop-stand-under-desk-storage-desk-side-rack-steel-made-documents-laptop-tablet-phone-remote-control-stationery-cutlery-storage-organization-i3372862829.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$87.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BIMI Bobo Style Braided Knotted Waist Belt Fashion Accessories Soft Boho Rope Chain Tie Waistband Solid Color Tassel Braided Waist Belt for Beginners</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/bimi-bobo-style-braided-knotted-waist-belt-fashion-accessories-soft-boho-rope-chain-tie-waistband-solid-color-tassel-braided-waist-belt-for-beginners-i3392769257.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLONE Elegant Women Accessories Sweater Decorative Wide Waist Belt Dress Strap Waistband Elastic Buckle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.lazada.sg/products/polone-elegant-women-accessories-sweater-decorative-wide-waist-belt-dress-strap-waistband-elastic-buckle-i3380917431.html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>$1.68</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -7938,4 +8994,2341 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>903</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>904</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>905</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>906</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>907</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>909</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>910</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>912</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>914</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>916</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>919</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>920</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>924</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>925</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>576</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>931</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
+        <x:v>933</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>934</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>937</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>943</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>949</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>961</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>964</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>966</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>967</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>968</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>969</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>972</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>973</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>976</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>980</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>985</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>987</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>988</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>482</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>990</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>993</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>994</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>997</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>999</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>1000</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>1002</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>1003</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>1004</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>349</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>1005</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>1006</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>1007</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E37" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>1008</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>1009</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>1010</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>1011</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>1012</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>1014</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>1015</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>1016</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>1019</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>1020</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>1021</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>1024</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>261</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>1025</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1026</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>1027</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>1028</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>1029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>1032</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>1033</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>1034</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>1035</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>1036</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>1037</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>780</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>1038</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>1039</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>688</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>1040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>799</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>800</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>1041</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>1042</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>1043</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>1044</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>1046</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>1047</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>1048</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>781</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>782</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>1049</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>1050</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>1051</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>1054</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>1056</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>1057</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>901</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>1058</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1059</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>1061</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>499</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>1062</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>1063</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>1064</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>822</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>823</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>824</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>825</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>1065</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>1066</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>1067</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>1068</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>1069</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>1070</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>1072</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>1073</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>1074</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>1075</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>1076</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>1077</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>548</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>855</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>1078</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>1079</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>1080</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>1081</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>1082</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>1083</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>1084</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>1085</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>1086</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>1088</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>1089</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>1090</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>803</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>807</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>1091</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>1092</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>1093</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>1094</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>951</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>1095</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>1096</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>747</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>1097</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>785</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>787</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>788</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>882</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>763</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>764</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>765</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
+        <x:v>1098</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>1099</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>1101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>842</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>843</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>815</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F32" s="0" t="s">
+        <x:v>844</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>1102</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>1103</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>770</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>771</x:v>
+      </x:c>
+      <x:c r="E33" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F33" s="0" t="s">
+        <x:v>1104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>857</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>858</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="E34" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F34" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>1105</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>1106</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E35" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F35" s="0" t="s">
+        <x:v>395</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>1107</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>1108</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>1109</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>1110</x:v>
+      </x:c>
+      <x:c r="E36" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>1111</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>1112</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>1113</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>1114</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>1115</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>1116</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>901</x:v>
+      </x:c>
+      <x:c r="E38" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>1117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>1119</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>539</x:v>
+      </x:c>
+      <x:c r="E39" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>736</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>1120</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>1121</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E40" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F40" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>1122</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>1123</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>1124</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="E41" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F41" s="0" t="s">
+        <x:v>1125</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F41"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:6">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="0" t="s">
+        <x:v>1126</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>1127</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>1128</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="0" t="s">
+        <x:v>1129</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>1130</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>1131</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>1132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="0" t="s">
+        <x:v>1133</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>1134</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>1135</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>1136</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>1137</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>1138</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>1139</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>1140</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>1141</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>1142</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>991</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>1143</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>1145</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="E7" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
+        <x:v>1146</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>1148</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>801</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
+        <x:v>1149</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>1151</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>693</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>1152</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>1153</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>1154</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>1155</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>1156</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>743</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>1157</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="0" t="s">
+        <x:v>1158</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>1159</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="0" t="s">
+        <x:v>1160</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>1161</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
+        <x:v>1162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="0" t="s">
+        <x:v>1163</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>1164</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>1165</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
+        <x:v>283</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="0" t="s">
+        <x:v>1166</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>1167</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>721</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>707</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="A16" s="0" t="s">
+        <x:v>1168</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>1169</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>989</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>486</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="A17" s="0" t="s">
+        <x:v>1170</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="A18" s="0" t="s">
+        <x:v>1172</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>1173</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>1174</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>766</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="0" t="s">
+        <x:v>1175</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>1176</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="0" t="s">
+        <x:v>1179</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>1180</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>1181</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>998</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="0" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>1183</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>1184</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>313</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="A22" s="0" t="s">
+        <x:v>1185</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>1186</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>1187</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>1188</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>1189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="A23" s="0" t="s">
+        <x:v>1190</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>1191</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>1192</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>1193</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="A24" s="0" t="s">
+        <x:v>1194</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>1195</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>1196</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>1197</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>1198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>1199</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>1178</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>1200</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>1201</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>1203</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>1204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>1205</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>1206</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>1207</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>1208</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>1209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>1210</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>1211</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>1213</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>1214</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>1215</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>1216</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>810</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>811</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>1217</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>1218</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>1219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>1220</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>1221</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>731</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>1222</x:v>
+      </x:c>
+      <x:c r="E31" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="F31" s="0" t="s">
+        <x:v>1223</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>1224</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>1225</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>1226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>1227</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>1228</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>1230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>1231</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>1232</x:v>
+      </x:c>
+      <x:c r="C34" s="0" t="s">
+        <x:v>1233</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>1234</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>1235</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>1236</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>1237</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>1238</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>1229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>1239</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>1240</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>1241</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>1242</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>1243</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>1244</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>1245</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>1246</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>1247</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>1018</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>1248</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>1249</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>571</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>1251</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>1252</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>1253</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Data/Products_Lazada.xlsx
+++ b/Data/Products_Lazada.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e110b5800b3f798d/南洋理工/MSBA-T3/AN6817 - ROBOTIC PROCESS AUTOMATION (RPA) FOR ANALYTICS/Group Project/TeamProject/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e110b5800b3f798d/Documents/UiPath/AN6817-TeamProject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_A5AE680E52BCE59F1BC5729A91226002E16658FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01F338EA-63DB-4BF4-9D87-60ABEC9B17C6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_A5AE680E52BCE59F1BC5729A91226002E16658FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E2A230-0126-4C74-BA73-EA4B3058A08B}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="285" windowWidth="29040" windowHeight="16035" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5550" yWindow="4490" windowWidth="19200" windowHeight="11710" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shoes-for-men" sheetId="5" r:id="rId1"/>
@@ -5777,10 +5777,13 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/Data/Products_Lazada.xlsx
+++ b/Data/Products_Lazada.xlsx
@@ -89,6 +89,21 @@
     <x:t>64 sold</x:t>
   </x:si>
   <x:si>
+    <x:t>Casual Sneakers Cushioning Outdoor Running Shoes for Men Non-slip Sport Male Shoes Professional Athletic Training Men Air Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM37.94</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 62%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>China</x:t>
+  </x:si>
+  <x:si>
+    <x:t>772 sold</x:t>
+  </x:si>
+  <x:si>
     <x:t>【READY STOCK】Men's low top sports shoes, youth college style flat shoes, round toe lace up running shoes.</x:t>
   </x:si>
   <x:si>
@@ -98,1597 +113,1606 @@
     <x:t>Voucher save 67%</x:t>
   </x:si>
   <x:si>
-    <x:t>China</x:t>
-  </x:si>
-  <x:si>
     <x:t>704 sold</x:t>
   </x:si>
   <x:si>
-    <x:t>Hot Sale Flying Woven Men's Shoes Fashion Soft Sole Casual Shoes Outdoor Sports Running Shoes</x:t>
+    <x:t>Men Low Top Running Shoes without Grinding Feet Sneakers Suitable for Camping Indoor Walking</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM79.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - DKEE Sneaker Women's Sport's Shoes Kasut Outdoor Lelaki Wanita Unisex Men's Sneakers Travel Casual Gift Korea Japan NEW Travel Comfort Selesa Women Ladies Girls New October 2022 ks13921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 50%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sports Daddy Men's Shoes Celebrity Summer New Fashionable In Trend Breathable Old Wild/Men Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM74.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Harga Murah Kasut Lelaki Murah Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.93</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tiger TOKUTEN SLIP-ON Low Top Unisex Sneakers Scott Low Cut Sports Shoes for Men Women Running Sports Sneakers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM33.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Balance Official Store NB574 Sneaker Grey Blue 574NSF Sports Shoes for Men women running 【Lazada Guarantee】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM134.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM456.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kedah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Official flagship store】New Balance NB 1906R Men's and women's sports shoes casual shoes gray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM122.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM342.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【Official flagship store】New Balance NB 327 Men's and women's sports shoes casual shoes black gray</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM120.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM340.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New balance 530 MR530AA1 NB530 Shoes off-White Sneakers Sports Sneakers Running Shoes unisex-next day delivery【Lazada Guarantee】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM128.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM432.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【100% Genuine】Tiger 66 yellow blue Men's and women's sports shoes casual shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM123.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM343.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sports Shoes for Men Sneaker Casual Shoes Fashion Korean Style On Sale Original Soft Low top Shoes New Flat Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 72%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Balance Official NB 327 KA red White running shoes for men women sports sneakers -Young style【HOT SALE】</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM138.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM337.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasut Lelaki Musim Luruh Baru Tinggi -Top Daddy Shoes Belia Bergaya Running Kasut Kasual Kasut Sukan Kasut Pu Kasut Pu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM38.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 52%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>185 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's Fashion Trend Outdoor Mountaineering Sports Large Dad Shoes Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 74%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men Sneakers Sports Shoes Running Sneakers Men Shoes Kasut Sukan Lelaki Kasut Lelaki Shoes Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM84.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【HOT SALE】Tiger TOKUTEN 66 SLIP-ON Black White 1183A360-205 Low Top Unisex Sneakers One Year Warranty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM129.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM351.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Melaka</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025 Raya READY STOCK Second Generation Alpha Air Zoom Kasut Sukan Lelaki Cushion Couple Sneakers Kasut Joging Lelaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM39.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM23.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 47%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>269 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>240 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men’s Casual Sport Shoes Korean Style Flying Woven Mesh Shoes Lace-Up Sport Running Shoes Kasut Kasual Kasut Lari 运动休闲鞋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.64</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 77%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Perak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>723 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Original Black Men's Sports Shoes Imported Men's Shoes Lightweight And Casual Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【READY STOCK】Men's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>163 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 70%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Kasut Lelaki Walking Running Sport</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ORNGMALL New Spring And Summer Men Sport Sneakers Casual Shoes Men Women Sneakers Wear-Resisting Non-Slip Male Footwears Couple Shoes Plus Size Shoes 36-47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM33.59</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 57%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Inferno-burn Sneaker Men's Sport Kasut Outdoor Shoe Lelaki Sukan Women's Sneakers Travel ks12228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 45%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>438 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>new trendy men's shoes versatile casual fashionable sports running non-slip breathable mesh dad shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM23.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 76%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 65%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM35.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Johor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>922 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cool Men's Sports Shoes Latest Styles Of Men's Sports Shoes Running Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM29.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>73 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM25.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 78%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>68 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>484 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83D__xDC9D_ READY STOCK Sport Slip on Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneakers Breathable Increase height fashion casual shoes and Korean simple and cute women's shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.0K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 66%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.8K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sneaker Women's Sport Shoes Kasut Outdoor Shoe Kasut Sukan Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 81%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean HAlF SHOES FOR WOMEN two color lace up platform women's shoes Girl Walking Shoes Casual Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM22.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.6K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Student cute little white shoes for women 2024 summer new breathable versatile thick-soled height-enhancing big-toe shoes super hot sports shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM27.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>877 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Meowme Korean Casual Women's Shoes - Stylish Flyknit Mesh Sneakers for Summer Activities KP437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pahang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Summer Slip-On Shoes Women's Kitchen Anti-Slip Wear-Resistant Soft Bottom Cow Tendon Sole Flat Head Covering Single Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.40</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 61%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flat Bottom Casual Shoes For Women Nurses Shallow Split Design Soft Sole Plus Size Lady Shoes Rubber Outsole Pure Color Adults</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>French Mary Jane single shoe women's soft sole anti slip thick heel square toe shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM11.39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM27.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Venalisa Mary Jane Vintage Women's High Heels Flats Round Head Hook Design Eid al-Fitr Christmas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM33.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's shoes spring and summer large size shoes ladies cloth shoes slip on fly mesh shoes mother shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 54%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Korean Style Fashion Men Women Hot Running All-match Casual Sneaker Sports Shoes Kasut Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashionable Flat Bottomed Anti-Slip Women's Shoes Traditional Beijing Cloth Shoes Comfortable Casual Slip-On Loafers for Mom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Limited Offer! Newbalance MS327DT jogging shoes for women&amp;man-Retro bluish beige|Breathable Material&amp;Retro Style For Casual</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM297.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM446.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wp Kuala Lumpur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita Casual Gift Travel Comfort Selesa Women Ladies Girls New December 2022 ks14975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>947 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BT Kasut Perempuan Kasut Wanita Shoes for Women Korean Version on Sale Flat Shoes Casual Women Leather Shoes Rubber Heighten Platform Loafers Women Shoes Plue Size 35-44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM26.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 55%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non Slip Wearable All-Match Soft Bottom Casual Shoes Breathable Running Shoes Sneaker New Mesh Spring and Summer Super Light Women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Handmade Embroidered Tiger Head Shoes 3cm Heel Soft Bottom Comfortable Old Beijing Cloth Shoes Increased Height Inner Design</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM62.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Overseas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>375 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Latest Fashion shoe kasut women's casual shoes , shoes for work</x:t>
+  </x:si>
+  <x:si>
+    <x:t>200 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>135 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Brand GenGeGo COD Sport Running Shoes Sport Shoes Women Sneakers Casual Running Shoes Jogging Shoes Jogging Perempuan Sneakers For Women Sepatu Wanita Impor Terbaru White Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 59%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kasut Sukan Wanita Berkuality Shoes Women Sneakers K207 Sport Shoes Kasut Runnig Sport Outdoor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 36%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDD25_OLL Women Sandal pearl leather Shoes Wanita Selipar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>902 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Men's and \Women's single shoes breathable mesh shoes mother shoes middle-aged and elderly walking shoes stall shoes manufacturers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 75%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>545 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK_xD83D__xDD25_KFS Shiunis Sandal Women's Kasut Shoe Slipper Lady Perempuan Wanita Girl Lawa Casual Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Or-lik Women Sneaker Shoe Women Running Outdoor Sport Kasut Casual Walking Perempuan Wanita Women Perempuan Lady Kasut Lelaki Man Gaya Sport for Raya Murah Pretty Hadiah Gift Korea Japan NEW Travel August 2019 Perempuan Lady</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Mesh Thick-Soled Sandals Women Nurse Shoes Mother Shoes Work Shoes Work Shoes Flat-Soled Hole Beach Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>121 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Korean Style Fashion shoes Women Men hot running models All-match casual sports student kasut sukan wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Women's Flat OL Kasut Wanita Women Rubber Shoes Ribbon -3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM11.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>355 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK MeowMe Women's Outdoor Sneakers Sport Shoes Kasut Sukan Wanita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 58%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Gloo-rick Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift ks12193</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM24.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 51%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Fashion Women Sneakers Casual Female Shoe Outdoor Sport Shoes Kasut Sukan Wanita Kanvas Perempuan Sneaker</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIWANA Flat Shoes For Women Korean Style Leather Black Casual Shoes Plus Size 41 Comfort Lace Up Oxfords Shoes Sneakers Soft Sole Women Shoes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM36.39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 63%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>167 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>230 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SELESA Canvas Shoes Women Kasut Kanvas Perempuan Sneakers Women Plus Size Kasut Plus Size Canvas Sneakers Platform</x:t>
   </x:si>
   <x:si>
     <x:t>RM24.90</x:t>
   </x:si>
   <x:si>
-    <x:t>Voucher save 75%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>106 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Low Top Running Shoes without Grinding Feet Sneakers Suitable for Camping Indoor Walking</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM79.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Harga Murah Kasut Lelaki Murah Walking Running Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sports Daddy Men's Shoes Celebrity Summer New Fashionable In Trend Breathable Old Wild/Men Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM74.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - DKEE Sneaker Women's Sport's Shoes Kasut Outdoor Lelaki Wanita Unisex Men's Sneakers Travel Casual Gift Korea Japan NEW Travel Comfort Selesa Women Ladies Girls New October 2022 ks13921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tiger TOKUTEN SLIP-ON Low Top Unisex Sneakers Scott Low Cut Sports Shoes for Men Women Running Sports Sneakers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM33.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【Official flagship store】New Balance NB 1906R Men's and women's sports shoes casual shoes gray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM122.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM342.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【100% Genuine】Tiger 66 yellow blue Men's and women's sports shoes casual shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM123.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM343.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【Official flagship store】New Balance NB 327 Men's and women's sports shoes casual shoes black gray</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM120.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM340.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTA Men Running Shoes 112435521U-2 -Black (Kasut Larian Lelaki)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM186.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 15%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Fashion Trend Outdoor Mountaineering Sports Large Dad Shoes Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 74%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Sneakers Sports Shoes Running Sneakers Men Shoes Kasut Sukan Lelaki Kasut Lelaki Shoes Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM14.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM84.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasut Lelaki Musim Luruh Baru Tinggi -Top Daddy Shoes Belia Bergaya Running Kasut Kasual Kasut Sukan Kasut Pu Kasut Pu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM38.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 52%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>185 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.43</x:t>
+    <x:t>2.2K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock_xD83C__xDDF2__xD83C__xDDFE_Men Short Sleeve Button Collar Shirt Plain Casual Baju Lelaki Kemeja Berkolar Butang Lengan Pendek</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Premium T-shirt Lelaki Perempuan Unisex Men Women Unisex New Design T shirt Murah Baju Round Neck Size S~5XL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 2%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.7K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer fashion T-shirt, round neck short sleeved shirt, top, T-shirt, men's T-shirt#T138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEKE Kemeja Lelaki Long Sleeve Slim Fit Suit Shirt Plus Size Business Formal Shirt Men baju kemeja lelaki READY STOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 49%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6.1K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【From Perak】ProMan baju t shirt lelaki ice Silk Quick-Drying Short-Sleeved T-Shirt Men Summer Fitness Sports Breathable Cool Lightweight Printed Top Round Neck 男士运动衫短袖T恤</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S-5XL Gintama T Shirt High Quality Cotton Anime Print T-Shirt Male And Female Student Round Neck Short Sleeved Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 32%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOCHO Summer New Short Sleeve Tshirt Mens Round Neck Korean Version Pullover Slim MEN Tshirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 9%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>276 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korea COD，2024 t shirt,Baju Cotton LUCAS OIL MOTOR ,Premium Quality Cotton ADULT T-Shirt / LUCAS OIL Dusty Pink COD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.81</x:t>
+  </x:si>
+  <x:si>
+    <x:t>779 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOCHO Men's Short Sleeved POLO Shirt Print Student POLO t-Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heavyweight Short Sleeve T-Shirt Men's Summer Loose Fit Versatile Simple Stylish Five-Quarter Sleeve Clothing Breathable Cotton Youth Fashion</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.75</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Beige/Orange Colour)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pure Cotton Short Sleeve T-Shirt round Neck Men's Midlife Summer Clothing Large Size Top for 40-50 Years Old Men</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Pure Cotton Short Sleeve T-Shirt Men's Slim Fit Cool Feeling round Neck Casual Fashionable Thin Top Youth Pop Style</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POP [ Ready ] Aespa armageddon series t-shirt - Aespa full album armageddon - Karina Winter Giselle ning-ning | Concert | Instant surabaya sidoarjo | Sayz.co s-5xl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Early Bird Saved RM15.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quick Dry Mesh Short Sleeve Men's T-Shirt Summer New Loose Large Size Sport Body Shirt Thin Casual Top Breathable Comfortable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 97%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>49 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Thin Men's Printed Short Sleeve T-Shirt plus Size Loose Casual Top Trendy Half Sleeve Base Shirt Breathable Youth Popular</x:t>
+  </x:si>
+  <x:si>
+    <x:t>347 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Summer Korean Style Fashion All Short Sleeved T Shirt Men Top T Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Polo Shirt Short Sleeve T-Shirt Men High End Bamboo Flower Embroidery Mesh Ice Silk Collar Work Paul Shirt Top Clothes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ice Silk Camouflage Short Sleeve T-Shirt Men's Summer Thin Breathable Casual Sports Quick Dry New 2025 Base Shirt Clothes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 30%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Men's 100% cotton summer loose size PARIS letter Graphic printed slim fit casual sports round neck short sleeved T-shirt top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.97</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Fashion brand Round Neck Men T-shirts Casual T Shirt Youth Short Sleeve Tees Sports T Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"B" series cotton round neck men's short 2025 summer new five-quarter sleeve fashion brand men's loos short sleeve simpl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New 2025 Men's Long Sleeve T-Shirt Heavyweight Solid Color White Black Base Layer Shirt for Autumn Daily Wear round Neck Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.91</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Men's high street letter-printed short sleeve T-shirt men's summer loose cotton fashion brand T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Soft and Adorable Loopy Ruby Short-Sleeved T-shirt Men's Crew Neck T-shirt Loose Fashion Brand Cartoon Top Men's and Women's Tops Summer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 68%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>162 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>POLO Short-sleeved T-shirt men's new summer trend brand oversize niche high street American loose shirt ins</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NASA Bear Trendy Brand Pure Cotton Men's Half Sleeve Summer T-Shirt Couple Style Breathable Comfortable Casual round Neck Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TeeHaven baju Chinese dragon loong Kemeja-T Lelaki Lengan Pendek Cetakan Naga, Bahan Kapas Tulen, Fesyen dan Serba a, a Ins, Ketibaan Barut shirt for man and women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM19.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 1%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Loose Fit Cotton Half Sleeve T-Shirt Men's Fashionable Couple Outfit Devil Smile Print round Neck Casual Top</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 84%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Brr Brr Patapim T Shirt Funny Meme Tee Italian Brainrot Meme T-shirt 100% Cotton Meme Shirts Women's Men's Summer Baju Tops Short Sleeve2 S-5xl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM17.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 28%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ice Silk Short Sleeve Shirt Men's Summer Korean Style Trendy Sun Protection Gingham Shirt Men's Casual Summer Wear Youth Full Printed Shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 86%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TS baju NO DRAMA Oversized Shirt Cotton T-Shirt Men premium quality Cotton 200GM Crew Neck Plus Size T-Shirt Combed Cotton Half-Sleeve Plain Shirt Casual Crew Neck V-Neck Slim-fitting Plain Floral Striped Blackt shirt for man and women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TEAM WANG first generation basic back logo tee Jackson Wang cotton S-5XL SHIRT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 26%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TS baju new Pure Cotton Printed T-shirt Pure Cotton American Style Trendy T- shirt Street Style Loose Fit Summer T- shirt Couples' Short Sleeve Graffiti T-shirt Pure Cotton T-shirtt shirt for man and women</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Arive High Quality Azfar Men Kurta Como Crepe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>815 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Halloween Style Staples MY Distro T-Shirt KAOS- naga biru - Distro Upgrade Cotton Top tee Short Sleeve Tshirt baju t shirt lelaki Unisex Bahagian belakang depan ​COD christmas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 56%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SMC ProMan lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric M-3Xl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.98</x:t>
+  </x:si>
+  <x:si>
+    <x:t>130 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Khaki/Black Colour)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dress for women 2024 summer new fashion casual slimming comfortable dress for women long skirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Elegant Slim Fit Printed Dress for Women Plus Size 688</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.34</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 44%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Floral Long Dress for Women Plus Size</x:t>
   </x:si>
   <x:si>
     <x:t>Voucher save 71%</x:t>
   </x:si>
   <x:si>
-    <x:t>14 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flying Woven Men's Shoes Fashion Soft Sole Casual Shoes Outdoor Sports Running Shoes Lightweight Outdoor Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【READY STOCK】Men's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 72%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>163 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Original Black Men's Sports Shoes Imported Men's Shoes Lightweight And Casual Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>77 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 70%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Men's Sport Shoes Sneakers Fashion Kasut Lelaki Walking Running Sport</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men's Mesh High Top Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TOOYOUNG-M Extremely Soft Casual Sports Men Shoes 2023 Factory Price Sneakers Summer Breathable Running Footwear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM22.82</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Raya READY STOCK Second Generation Alpha Air Zoom Kasut Sukan Lelaki Cushion Couple Sneakers Kasut Joging Lelaki</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM39.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ READY STCOK ] SP7725 Space Men Black | Rubber Shoe Men | Labour Shoe | Sport Shoe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM11.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 40%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>169 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Inferno-burn Sneaker Men's Sport Kasut Outdoor Shoe Lelaki Sukan Women's Sneakers Travel ks12228</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 45%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>438 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>new trendy men's shoes versatile casual fashionable sports running non-slip breathable mesh dad shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM23.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 76%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 65%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM35.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Johor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>922 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>High quality trendy student board shoes casual for men's shoes Breathable upper Wear-resistant sole</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM25.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cool Men's Sports Shoes Latest Styles Of Men's Sports Shoes Running Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM29.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>73 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Fashion Men Sport Shoes Breathable Sneakers Running Shoes Lelaki Kasut Sukan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 68%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pahang</x:t>
-  </x:si>
-  <x:si>
-    <x:t>683 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Loli-tack Sneaker Men's Sport's Shoes Kasut Outdoor Lelaki Wanita Women's Sneakers Travel ks11589</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 63%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>833 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUSTKIDDIN123 MALAYSIA Englex Sneaker Men's Sport's Kasut Shoe Lelaki Sekolah Women's Sneakers Casual Travel Outdoor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.72</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Meowme Kasut Mens Comfortable Casual Fashion Shoes Running Shoes SM485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 34%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's Mesh Sports Shoes Lightweight Flat Running Shoes Breathable Mesh Casual Board Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 78%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>68 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 62%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>484 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Nova _xD83D__xDC9D_ READY STOCK Sport Slip on Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Women Sport Shoes Sneakers Kasut Sukan Perempuan Fashion Harga Murah Harga Lelong Female Girl Cantik Running</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 66%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sneakers Breathable Increase height fashion casual shoes and Korean simple and cute women's shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.0K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sneaker Women's Sport Shoes Kasut Outdoor Shoe Kasut Sukan Perempuan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 81%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Meowme Korean Casual Women's Shoes - Stylish Flyknit Mesh Sneakers for Summer Activities KP437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 55%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean HAlF SHOES FOR WOMEN two color lace up platform women's shoes Girl Walking Shoes Casual Footwear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM22.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.6K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual Summer Slip-On Shoes Women's Kitchen Anti-Slip Wear-Resistant Soft Bottom Cow Tendon Sole Flat Head Covering Single Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.40</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 61%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flat Bottom Casual Shoes For Women Nurses Shallow Split Design Soft Sole Plus Size Lady Shoes Rubber Outsole Pure Color Adults</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>French Mary Jane single shoe women's soft sole anti slip thick heel square toe shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM11.39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM27.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Venalisa Mary Jane Vintage Women's High Heels Flats Round Head Hook Design Eid al-Fitr Christmas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM33.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women's shoes spring and summer large size shoes ladies cloth shoes slip on fly mesh shoes mother shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 54%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Korean Style Fashion Men Women Hot Running All-match Casual Sneaker Sports Shoes Kasut Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashionable Flat Bottomed Anti-Slip Women's Shoes Traditional Beijing Cloth Shoes Comfortable Casual Slip-On Loafers for Mom</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.69</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Adult Dance Shoes High Heels Silk Satin Floor Dance Shoes Indoor Soft Bottom Standard Dance Shoes For Latin Dance</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM43.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita Casual Gift Travel Comfort Selesa Women Ladies Girls New December 2022 ks14975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>947 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BT Kasut Perempuan Kasut Wanita Shoes for Women Korean Version on Sale Flat Shoes Casual Women Leather Shoes Rubber Heighten Platform Loafers Women Shoes Plue Size 35-44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Non Slip Wearable All-Match Soft Bottom Casual Shoes Breathable Running Shoes Sneaker New Mesh Spring and Summer Super Light Women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Latest Fashion shoe kasut women's casual shoes , shoes for work</x:t>
-  </x:si>
-  <x:si>
-    <x:t>200 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Student cute little white shoes for women 2024 summer new breathable versatile thick-soled height-enhancing big-toe shoes super hot sports shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM27.80</x:t>
-  </x:si>
-  <x:si>
-    <x:t>877 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Handmade Embroidered Tiger Head Shoes 3cm Heel Soft Bottom Comfortable Old Beijing Cloth Shoes Increased Height Inner Design</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM62.38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Overseas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>375 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jiqueen Cover Shoe Women's Oxfords Shoes Loafers Flat Kasut Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>135 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDD25_KFS Shiunis Sandal Women's Kasut Shoe Slipper Lady Perempuan Wanita Girl Lawa Casual Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kasut Sukan Wanita Berkuality Shoes Women Sneakers K207 Sport Shoes Kasut Runnig Sport Outdoor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 36%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK_xD83D__xDD25_OLL Women Sandal pearl leather Shoes Wanita Selipar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>902 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Nova _xD83C__xDF81_ Ready Stock _xD83C__xDF08_ Men's and \Women's single shoes breathable mesh shoes mother shoes middle-aged and elderly walking shoes stall shoes manufacturers</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>545 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Or-lik Women Sneaker Shoe Women Running Outdoor Sport Kasut Casual Walking Perempuan Wanita Women Perempuan Lady Kasut Lelaki Man Gaya Sport for Raya Murah Pretty Hadiah Gift Korea Japan NEW Travel August 2019 Perempuan Lady</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Mesh Thick-Soled Sandals Women Nurse Shoes Mother Shoes Work Shoes Work Shoes Flat-Soled Hole Beach Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>121 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Women's Flat OL Kasut Wanita Women Rubber Shoes Ribbon -3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM11.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>355 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Gloo-rick Sneaker Women's Sport Shoes Kasut Walking Running Lady Perempuan Wanita Lawa Gift ks12193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM24.38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 51%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Fashion Women Sneakers Casual Female Shoe Outdoor Sport Shoes Kasut Sukan Wanita Kanvas Perempuan Sneaker</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK MeowMe Women's Outdoor Sneakers Sport Shoes Kasut Sukan Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 58%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>230 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ballet Shoes for Kids Adult Canvas Dance Shoes Women Sneakers Class Practice Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Women Lazy Slip-On Rounded Flat Heels Shoe Soft &amp; comfortable to wear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SELESA Canvas Shoes Women Kasut Kanvas Perempuan Sneakers Women Plus Size Kasut Plus Size Canvas Sneakers Platform</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 59%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIWANA Flat Shoes For Women Korean Style Leather Black Casual Shoes Plus Size 41 Comfort Lace Up Oxfords Shoes Sneakers Soft Sole Women Shoes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM36.39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>167 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock_xD83C__xDDF2__xD83C__xDDFE_Men Short Sleeve Button Collar Shirt Plain Casual Baju Lelaki Kemeja Berkolar Butang Lengan Pendek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.97</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premium T-shirt Lelaki Perempuan Unisex Men Women Unisex New Design T shirt Murah Baju Round Neck Size S~5XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 2%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Melaka</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12.7K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer fashion T-shirt, round neck short sleeved shirt, top, T-shirt, men's T-shirt#T138</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZEKE Kemeja Lelaki Long Sleeve Slim Fit Suit Shirt Plus Size Business Formal Shirt Men baju kemeja lelaki READY STOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 49%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>T-shirt lelaki, T-shirt leher bulat, T-shirt fashionable, lengan pendek, warna berbilang untuk dipilih dari#T51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【From Perak】ProMan baju t shirt lelaki ice Silk Quick-Drying Short-Sleeved T-Shirt Men Summer Fitness Sports Breathable Cool Lightweight Printed Top Round Neck 男士运动衫短袖T恤</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOCHO Summer New Short Sleeve Tshirt Mens Round Neck Korean Version Pullover Slim MEN Tshirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 9%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>276 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korea COD，2024 t shirt,Baju Cotton LUCAS OIL MOTOR ,Premium Quality Cotton ADULT T-Shirt / LUCAS OIL Dusty Pink COD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.81</x:t>
-  </x:si>
-  <x:si>
-    <x:t>779 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Halloween 100% Cotton Men's T-Shirt S671 christmas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 56%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>158 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOCHO Men's Short Sleeved POLO Shirt Print Student POLO t-Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM7.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Pure Cotton Short Sleeve T-Shirt Men's Slim Fit Cool Feeling round Neck Casual Fashionable Thin Top Youth Pop Style</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plain Polo T-Shirt Short sleeve Unisex Men Polo Shirt Fit Premium Quality (Beige/Orange Colour)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Wp Kuala Lumpur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heavyweight Short Sleeve T-Shirt Men's Summer Loose Fit Versatile Simple Stylish Five-Quarter Sleeve Clothing Breathable Cotton Youth Fashion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.75</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POP [ Ready ] Aespa armageddon series t-shirt - Aespa full album armageddon - Karina Winter Giselle ning-ning | Concert | Instant surabaya sidoarjo | Sayz.co s-5xl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Early Bird Saved RM15.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Quick Dry Mesh Short Sleeve Men's T-Shirt Summer New Loose Large Size Sport Body Shirt Thin Casual Top Breathable Comfortable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 97%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>49 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>S-5XL Gintama T Shirt High Quality Cotton Anime Print T-Shirt Male And Female Student Round Neck Short Sleeved Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 32%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UrbanThreads Oversized Shirt For Men Hacker Printed Short Sleeve hirt Plus Size Graphic Tees Korean Couple Clothes Black White Topst shirt for man and women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UrbanThreads WASSUP men's American tide short-sleeved t-shirt summer new niche premium sense of heavyweight cotton tops malet shirt for man and women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Trendy Creative Printing Unique Men's Fashion Short Sleeve Cotton T-Shirt Loose Fit Summer Foreign Trade Pure Cotton</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.37</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Grey Basic Pure Cotton Short Sleeve T-Shirt Unisex Summer Loose Shoulder Top Couple Matching Casual round Neck Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100% Pure Cotton Heavyweight Short Sleeve T-Shirt Loose plus Size Men's Fashion Summer Trendy Brand Breathable Casual Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM20.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UrbanThreads Birth Year (1990-2008,) Trendy nd Unisex Short Sleeve T-shirt Loose &amp; Trendy Cotton Base Tees Versatile Half-Sleeve Tops Couple's Outfit shirt for man and women</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Summer Korean Style Fashion All Short Sleeved T Shirt Men Top T Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM21.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Fashion brand Round Neck Men T-shirts Casual T Shirt Youth Short Sleeve Tees Sports T Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"B" series cotton round neck men's short 2025 summer new five-quarter sleeve fashion brand men's loos short sleeve simpl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>POLO Short-sleeved T-shirt men's new summer trend brand oversize niche high street American loose shirt ins</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NASA Bear Trendy Brand Pure Cotton Men's Half Sleeve Summer T-Shirt Couple Style Breathable Comfortable Casual round Neck Top</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ice Silk Short Sleeve Shirt Men's Summer Korean Style Trendy Sun Protection Gingham Shirt Men's Casual Summer Wear Youth Full Printed Shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 86%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>86 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Men Kurta Shirt Casual Smart Kurta Long Sleeve Side Pocket Formal Raya Plain Top Lelaki Baju Berkolar Baju / S to 2XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM19.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>85 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Halloween Style Staples MY Distro T-Shirt KAOS- naga biru - Distro Upgrade Cotton Top tee Short Sleeve Tshirt baju t shirt lelaki Unisex Bahagian belakang depan ​COD christmas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SMC ProMan lelaki men Short Sleeve Solid Color Simple And Easy Matching Waffle Fabric M-3Xl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.98</x:t>
-  </x:si>
-  <x:si>
-    <x:t>130 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE _xD83D__xDE0E_ Men Formal Shirt Smart Casual Top Kurta Lelaki Baju Berkolar Baju Raya Lengan Panjang MT 071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>965 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Premium T-shirt New Design T-shirt Unisex T shirt size S M L XL 2XL 3XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>685 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025 Summer Men's Fashion Business Loose Pure Solid Color Simple Casual Cool Versatile Polo Neck Short Sleeve T-shirt</x:t>
+    <x:t>249 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>✅【READY STOCK At Johor】Beryl Solid Color Short-Sleeved Wrap Dress For Women Above The Knee Round Neck Slim Fit Dres</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Dresses for Women 2022 Black Elegant Dress Office Lady Sleeveless Casual Dress Spaghetti Strap Tight Through Dress Party Mini Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.84</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Floral Dress for Women Plus Size Short Sleeve Print Maxi Dress 160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>133 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plus Size Dress for Women Floral Printing Dresses Fake Two-piece Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>415 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Cotton Dress for Women Plus Size Casual Floral Long Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>96 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>black floral dress for women white korean dress style midi plus size dress 3xl dinner long summer dress woman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>646 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IBeauty Plus Size Irregular Dress for Women Retro Slim Fit Print Shirt Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.83</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaftan Viral/ Baju Kelawar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 5%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>316 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kaftan Dubai Borong Baju Kelawar Cantik Sejuk dan Sangat SELESA_xD83D__xDD25_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 10%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>376 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_KAFTAN MURAH_xD83D__xDD25_Baju kelawar kaftan black series - Ready stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 11%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>334 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IRONLESS KAFTAN SARA WITH POCKET FREE SIZE ABAYA PLAIN ROBE &amp; JUBAH LONG ABAYA MAXI LONG DRESS GAMIS JUBAH UMRAH NURSING JUBAH MUSLIMAH DRESS MODEST FASHION</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.2K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INNER JUBAH ABAYA/LONG INNER/KAFTAN/MUSLIMAH LONG INNER DRESS T120</x:t>
+  </x:si>
+  <x:si>
+    <x:t>126 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE Women Dress Vintage Puff Long Sleeve Maxi Dress Solid O Neck Muslimah Dress Perempuan Dress Panjang WW 007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM22.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sexy Skirt Women Maxi Dress Loose Straight Skirt Sleeveless Dresses O-neck Sling Long Party Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>212 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARISSA ABAYA LACE CEY IRONLESS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negeri Sembilan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>59 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KM Khadeeja Kaftan Dubai Long Dress Short Sleeves [D2753A]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>175 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZANZEA Muslimah Womens Muslim Casual Holiday Sundress Bubble Long Sleeve Hippie Wedding Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM32.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NEW MUSLIMA KAFTAN VIRAL (BERTALI) MURAH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 14%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRADITIONAL Jubah Abaya Centik Lace Dress Lovely Jubah Diana ERA AINA– DIANA LACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM31.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>52 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plain cey ironless kaftan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 41%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Raya 2025 Sports Muslim dress Jersey Plus Size Baju Muslimah Sportwear Customization Name/Number Loose Muslimah Jersey T-shirt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KAFTAN VIRAL BF FRIENDLY IRONLES CEY EMBROIDERY with pocket</x:t>
+  </x:si>
+  <x:si>
+    <x:t>214 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AYUSH KAFTAN DUBAI / BAJU KELAWAR RANDOM DESIGN &amp; COLOURS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[Malaysian stock] _xD83D__xDD25_ Malay Muslim Long Skirt Floral Long Sleeve Pullover Chiffon A-line Dress Maxi Dresses O-neck Woman Bohe Beach Party Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM21.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>339 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JF Fashion Nela Jubah Dress A411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>103 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZANZEA Muslimah Women Muslim Raya Clothes Sleeveless Round-Neck Side Pockets Casual Denim Dresses</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM37.95</x:t>
+  </x:si>
+  <x:si>
+    <x:t>846 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju kelawar premium black gold series</x:t>
+  </x:si>
+  <x:si>
+    <x:t>485 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_[VIRAL DRESS]_xD83D__xDD25_KAFTAN Musliamah long Musliamh Dress LENGAN PANJANG LONG free size (Fit s to 2xL++..)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>372 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Pleated Loose Suspenders Dresses For Women Beach Dress Solid Color Dress High-end Long Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Baju Kaftan Baggy Korean Pleated Style | Kaftan Jubah Wanita | Baju Kaftan Jubah Viral 2024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM29.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jubah Flary For Muslimah In Crystals abaya baju -Diana Glaze Dress</x:t>
+  </x:si>
+  <x:si>
+    <x:t>514 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sleeveless Dress Inner Dress Singlet Long Dress Cotton</x:t>
   </x:si>
   <x:si>
     <x:t>RM14.00</x:t>
   </x:si>
   <x:si>
-    <x:t>Voucher save 64%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KURTA SLIM FIT WITH MODREN DESIGN Cotton Plain Kemeja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.74</x:t>
+    <x:t>IRONLESS JUBAH MUSLIMAH TURKI FASHION - PUFF SHOULDER DRESS / PLAIN ABAYA / JUBAH UMRAH / MAXI PLUS SIZE / GAMIS / MODEST MUSLIMAH DRESS / NURSING &amp; WUDHUK FRIENDLY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM29.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>803 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>READY STOCK Platina 811 Muslimah Long Dress Maxi Jubah Kurung Raya Elegant Flower Floral Pleated Pleats Sale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM15.00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK kain pn ok free size</x:t>
+  </x:si>
+  <x:si>
+    <x:t>481 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MU KAFTAN KELAWAR DEWASA LENGAN PENDEK / KAFTAN INDONESIA/ FREE SIZE KAFTAN LENGAN PENDEK/ BAJU TIDUR / BUTTON SLEEPWEAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM16.73</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 35%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>695 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UNIQLO Bag Women Bag Canvas Bag Dumpling Bag Shoulder Bag Underarm Bag Sling Bag crossbody Beg messenger Perempuan 女生斜背包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM1.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SORIVE PU Leather Women Sling Bag Fashion Simple Messenger Bag Small Hobos Shoulder Bag For Ladies Hand Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>220 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDC96_ Fashion _xD83D__xDC96_ Korean Ins Canvas Bag Female Student Shoulder Bag Casual Underarm Bag Beg Perempuan viral</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.88</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women PU Leather Shoulder Bag Fashion Rhombic Embroidery Solid Color Casual Zipper Handbags Boutique</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.96</x:t>
+  </x:si>
+  <x:si>
+    <x:t>224 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1522 ( READY STOCK ) CANVAS KOREA SLING BAG EU FASHION HOUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>482 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>_xD83D__xDD25_ ULTRASONIC _xD83D__xDD25_ A3 Plain Non-Woven Horizontal Recycle Bag Reusable Foldable Multi Use Grocery Shopping Party Tote Bags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM0.54</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Higoya Handbag Women's Shoulder Bag Bags Beg Tangan Handbag Women Bags Beg Tangan Wanita 女士手提包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>237 sold</x:t>
   </x:si>
   <x:si>
     <x:t>Voucher save 31%</x:t>
   </x:si>
   <x:si>
-    <x:t>435 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feveld cotton Men's Undershirt Bottoming Shirt 1 Pcs Cotton Men Casual Top Shirt Soft Breathable Slim Male Undershirt Summer Wear</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM5.62</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 12%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6.5K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADVO Microfiber T-shirt Quick Dry T Shirt Plain Gym Exercise Men Women Training Workout Sportswear Baju Lelaki Jersey Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 Summer Men Clothing T-shirts Casual O-neck Tops Tees Fashion Golden Letters Printing Male All-match Kpop Breathable T Shirt S-XL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 41%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Spring/Summer New European and American Men's Shirts Large Casual Loose Short sleeved Shirts Trendy Men's Shirts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dress for women 2024 summer new fashion casual slimming comfortable dress for women long skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 47%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>47 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Elegant Slim Fit Printed Dress for Women Plus Size 688</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.34</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 44%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>79 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>✅【READY STOCK At Johor】Beryl Solid Color Short-Sleeved Wrap Dress For Women Above The Knee Round Neck Slim Fit Dres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 57%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>63 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Floral Long Dress for Women Plus Size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>249 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Summer Dresses for Women 2022 Black Elegant Dress Office Lady Sleeveless Casual Dress Spaghetti Strap Tight Through Dress Party Mini Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.84</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Floral Dress for Women Plus Size Short Sleeve Print Maxi Dress 160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>133 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plus Size Dress for Women Floral Printing Dresses Fake Two-piece Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM14.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>415 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IBeauty Cotton Dress for Women Plus Size Casual Floral Long Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>96 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>black floral dress for women white korean dress style midi plus size dress 3xl dinner long summer dress woman</x:t>
-  </x:si>
-  <x:si>
-    <x:t>646 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Polka Dot Mid-length Dress For Women Casual Suspender Skirt One-shoulder Slim Dresses Strap Bottoming Skirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Viral/ Baju Kelawar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 5%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>316 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Dubai Borong Baju Kelawar Cantik Sejuk dan Sangat SELESA_xD83D__xDD25_</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>376 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IRONLESS KAFTAN SARA WITH POCKET FREE SIZE ABAYA PLAIN ROBE &amp; JUBAH LONG ABAYA MAXI LONG DRESS GAMIS JUBAH UMRAH NURSING JUBAH MUSLIMAH DRESS MODEST FASHION</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kaftan Dubai Baju Kelawar Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 11%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>350 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>INNER JUBAH ABAYA/LONG INNER/KAFTAN/MUSLIMAH LONG INNER DRESS T120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>126 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ DESINCE Women Dress Vintage Puff Long Sleeve Maxi Dress Solid O Neck Muslimah Dress Perempuan Dress Panjang WW 007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM22.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDCA5_New Arrival_xD83D__xDCA5_Kaftan/Baju Kelawar Matahari Creaction/Terengganu/Baju Tidur/Plus Size/Murah/Cotton/Terkini</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 33%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>292 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARISSA ABAYA LACE CEY IRONLESS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Negeri Sembilan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZANZEA Muslimah Womens Muslim Casual Holiday Sundress Bubble Long Sleeve Hippie Wedding Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM32.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KM Khadeeja Kaftan Dubai Long Dress Short Sleeves [D2753A]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM10.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>175 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Plain cey ironless kaftan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TRADITIONAL Jubah Abaya Centik Lace Dress Lovely Jubah Diana ERA AINA– DIANA LACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM31.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>52 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AYUSH KAFTAN DUBAI / BAJU KELAWAR RANDOM DESIGN &amp; COLOURS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>193 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KAFTAN VIRAL BF FRIENDLY IRONLES CEY EMBROIDERY with pocket</x:t>
-  </x:si>
-  <x:si>
-    <x:t>214 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baju kelawar premium black gold series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>485 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZANZEA Muslimah Women Muslim Raya Clothes Sleeveless Round-Neck Side Pockets Casual Denim Dresses</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM37.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t>846 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baju Raya 2025 Sports Muslim dress Jersey Plus Size Baju Muslimah Sportwear Customization Name/Number Loose Muslimah Jersey T-shirt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM21.26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jubah Dress Zulaikha Sulam Ironless Sekali Shawl Sulam Mc180</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM29.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_[VIRAL DRESS]_xD83D__xDD25_KAFTAN Musliamah long Musliamh Dress LENGAN PANJANG LONG free size (Fit s to 2xL++..)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>372 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Arrival Dress Lisa Viral Outer Muslimah hijabista Trending</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM17.39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>910 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jubah Flary For Muslimah In Crystals abaya baju -Diana Glaze Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>514 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muslimah Jubah Dress Pario Kaftan KAFTAN PARIO READY STOCK kain pn ok free size</x:t>
-  </x:si>
-  <x:si>
-    <x:t>481 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Pleated Loose Suspenders Dresses For Women Beach Dress Solid Color Dress High-end Long Dress</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[ NEW DESIGN !!! ] Jubah Sofia Lace Raya Collection Dewasa (S to 3XL)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MU KAFTAN KELAWAR DEWASA LENGAN PENDEK / KAFTAN INDONESIA/ FREE SIZE KAFTAN LENGAN PENDEK/ BAJU TIDUR / BUTTON SLEEPWEAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM16.73</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 35%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>695 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Platina 811 Muslimah Long Dress Maxi Jubah Kurung Raya Elegant Flower Floral Pleated Pleats Sale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>READY STOCK Bonita Baju Muslimah Fashion Long Dress Maxi Jubah Kurung Raya Casual Basic Plain</x:t>
-  </x:si>
-  <x:si>
-    <x:t>78 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abaya Muslim Dress Plain golden zip Women Fashion Jubah Long Sleeve Dresses ready stock</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM15.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>426 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[READY STOCK]CB_Shopreadystok DRESS PRINCESS MUSLIMAH FASHION CANTIK RAYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM33.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>771 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQLO Bag Women Bag Canvas Bag Dumpling Bag Shoulder Bag Underarm Bag Sling Bag crossbody Beg messenger Perempuan 女生斜背包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM1.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Uniqlo bag Frog bag Crossbody Bag Women Canvas Bag Student Shoulder Beg Sling Bag Women Beg Viral Beg Silang frog bag 女生包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.99</x:t>
-  </x:si>
-  <x:si>
-    <x:t>884 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Student Tote Bag With Zip Canvas Beg Tuisyen Galas Tepi Sekolah Cute School Bag Black Oxford Cloth Murah A550</x:t>
+    <x:t>Convenient Cross-body Mobile Phone Shoulder Bag Pouch Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM10.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>294 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0006 Fashion Hobo Bag Sweet Lady Underarm Ins Style Hand Carry Simple Zip Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>710 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shoulder Bag for Women Sling Korean Female New Underarm Bag Retro Crossbody Bag Handbag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.67</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Waterproof Nylon Crossbody Bag for Women Casual Travel Oxford Cloth Single Shoulder Bag Leisure Match All New 2025 Model</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM26.70</x:t>
+  </x:si>
+  <x:si>
+    <x:t>201 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Elegant Soft Leather Large Capacity Shoulder Crossbody Bag for Women Retro Handbag Fashionable Trendy Small Square Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM22.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Summer Popular Straw Woven Mini Bucket Bag Women's New 2025 Casual Versatile Crossbody Beach Vacation Handbag Soft Polyester Lining</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>456 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 46%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Casual Fitness Bag Short Trip Pillow Crossbody Bag Fashion Sport Leisure Wide Shoulder Strap Diagonal Bag Small Toast Package</x:t>
+  </x:si>
+  <x:si>
+    <x:t>92 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 39%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Lustrous Love Sling Bag Shoulder Bag Women's Tangan Wanita Perempuan Casual Wallet Purse Cross Body Gift Korea Japan Travel Ladies Girls New October 2023 fb15591</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM14.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GRIMO Malaysia - Ni-ni-cat Enve Sling Women's Handbag Bag Tote Beg Tangan Bags Wanita Lady Perempuan Lawa Gift for Ladies Casual Dinner Cantik Girl Raya Korea Japan Ready Stock Travel Women Ladies Girls New September 2020 fb12811</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM6.89</x:t>
+  </x:si>
+  <x:si>
+    <x:t>535 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[2025 Raya] Original Japanese Nylon Waterproof Bag Multi-pocket Large-capacity Student shoulder bag Casual Literary Woman Bag laptop tote bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM12.12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japanese Casual Literary Woman Bag Shoulder Bag Women Handbag Nylon Waterproof Bag Sling Crossbody Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM18.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 48%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sling Shoulder Bag Women Plain PU Handbag Tote Beg Korean Style Bucket Bag Tangan Wanita 水桶包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM9.60</x:t>
+  </x:si>
+  <x:si>
+    <x:t>416 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women Stylish Nylon Shopping Tote bag Handbag Lady Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 38%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2024 Original Japanese Nylon Waterproof Bag Multi pocket Large capacity Student Tote Bag Casual Literary Woman Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM13.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAVE Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>264 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) PU SLING BAG EU FASHION HOUSE 796</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>878 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>【_xD83C__xDDF2__xD83C__xDDFE_Stock 】Dumpling Shoulder Bag Korean Sling Bag Ins Fashion Hip Hop Solid Color Shoulder Bag Casual Nylon Underarm Crossbody Bag 背包 斜挎包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM3.78</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
+  </x:si>
+  <x:si>
+    <x:t>159 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Korean Style Handphone Bag Mobile Phone Bags Three Layer Large Capacity Ladies Flap Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>151 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUSTKIDDIN123 Malaysia - Casual Jijeline Women's Sling Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>《 _xD835__xDDEA__xD835__xDDD4__xD835__xDDE7__xD835__xDDD8__xD835__xDDE5__xD835__xDDE3__xD835__xDDE5__xD835__xDDE2__xD835__xDDE2__xD835__xDDD9_ 》Laminated Non Woven Fabric Bag Groceries Shopping Tote Bags Reusable Eco Green Handbag Beg Kain 环保手提袋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM1.08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>371 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dumpling bag Uniqlo bag Sling bag Crossbody bag Korean Ins Canvas Bag Female Shoulder Bag nylon bag messenger Bag Women Bag Nylon bag Tote bag Beg Perempuan viral女生背包/斜背包/网红包包 饺子包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM4.45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13.9K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) CANVAS BAG KOREA EU FASHION HOUSE 957</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.90</x:t>
+  </x:si>
+  <x:si>
+    <x:t>607 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jannah Little Beauty Sling Shoulder Girl Handbag Beg Tangan Kenduri Travel 10R3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4.5K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fashion Nova _xD83C__xDF08_Korean Style Bag Shoulder Handbag Sling Travel Beg Tangan Wanita Perempuan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kstyle Women Elegant Fashion Classy Cute Small Simple Shiny Glittery Ultra Light Hard Edge Premium PU Leather Chain Travel Outing Handbag Sling Shoulder Bag Crossbody Bag - 9463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9.4K sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready Stock Dumpling Bags Handbags Shoulder Bags Messenger Crossbody Bags Leisure Fashion Purses Cute Tote Clutch</x:t>
   </x:si>
   <x:si>
     <x:t>RM3.99</x:t>
   </x:si>
   <x:si>
-    <x:t>4.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bag Women's Dumpling Bag Luxury Designer Messenger Bag 2024 Trend Female Crossbody Pack White Letter Printing Series</x:t>
-  </x:si>
-  <x:si>
-    <x:t>115 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDF4B_ READY STOCK_xD83C__xDF4B_Large Size-Pleated Clouds Underarm Bag New Solid Color Shoulder Bag Commuter Pleated Bag Shopping Bag Korean Girls Heart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>124 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>iFASHION 1298 Women Korean Fashion Ins Style Student Sling Crossbody Shoulder Bags Wanita Beg Kanvas Kecil Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>USAMS #2045 Messenger Bag Unisex Canvas Shoulder Casual Bags Japanese Street Fashion Sports Hip-hop</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kedah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>759 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Higoya Handbag Women's Shoulder Bag Bags Beg Tangan Handbag Women Bags Beg Tangan Wanita 女士手提包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>237 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UNIQLO Bag Women bag Canvas Bag Dumpling Bag Shoulder Bag Underarm Bag Sling Bag Beg Perempuan viral女生背包/斜背包/网红包包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4.2K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Casual Sporty Style Crossbody Waist Bag for Women Mobile Phone Slung Bag Single Shoulder Bag Soft Nylon Material Foldable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>301 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83C__xDDF2__xD83C__xDDFE_ Ready Stock Large Canvas Tote Bag Muji Style Shoulder Bag Work Student Simple Bag Women Bag Wanita Perempuan Beg 帆布包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NANJIA New Women's Crossbody Bag, Half Moon Bag, Shoulder Bag - Lightweight Spacious PU Leather Handbag Water-Resistant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 43%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NANJIA Fashion Handbag Women Sling Bag Women Crossbody Bag PU Leather Bag Women Gift</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Waterproof Nylon Crossbody Bag for Women Casual Travel Oxford Cloth Single Shoulder Bag Leisure Match All New 2025 Model</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM26.70</x:t>
-  </x:si>
-  <x:si>
-    <x:t>201 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fashion Four-Pieces PU Leather Handbag And Shoulder Bag For Women 女时尚新款纯色PU铆钉四件套休闲手拿单肩宴会女包包 Fesyen Wanita Baru Warna Tulen PU Rivet Set Empat Keping Tangan Kasual Memegang Satu Bahu Jamuan Beg Wanita</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>现货✨卡皮巴拉帆布袋 Capybara Canvas Bag 可爱水豚卡通帆布袋包包搞怪创意手提袋单肩包购物袋补习袋上课大容量学生 Cute Cartoon Tote Bag Shoulder Large Capacity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shoulder Bag for Women Sling Korean Female New Underarm Bag Retro Crossbody Bag Handbag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[Cloud Bazaar] Large Capacity Shopper Bag Canvas Bag Cotton Blank DIY Shopping Eco-friendly One-Shoulder Tote Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.66</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[2025 Raya] Original Japanese Nylon Waterproof Bag Multi-pocket Large-capacity Student shoulder bag Casual Literary Woman Bag laptop tote bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>《 _xD835__xDDD4__xD835__xDFEF_ _xD835__xDDE6__xD835__xDDDC__xD835__xDDED__xD835__xDDD8_ 》 Non-Woven Horizontal Plain Tote Bag Eco-Friendly Reusable Recycle Shopping Grocery Bags Beg Kain Murah 环保袋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM0.54</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A3 Plain Non-Woven Horizontal Recycle Bag Reusable Foldable Eco-Friendly Multi Use Grocery Shopping Party Tote Bags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.8K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( READY STOCK ) CANVAS KOREA BAG EU FASHION HOUSE 1344</x:t>
+    <x:t>500 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DROPASSIST 1197 Woman Sling Messenger Bag Chest Beg Wanita Women Shoulder Tote Bag Handbag Perempuan Bags</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM7.99</x:t>
+  </x:si>
+  <x:si>
+    <x:t>191 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>( READY STOCK ) PU SLING BAG EU FASHION HOUSE 867</x:t>
   </x:si>
   <x:si>
     <x:t>RM6.50</x:t>
   </x:si>
   <x:si>
-    <x:t>High Quality Luxury Brand Purses and Handbags Designer Leather Shoulder Crossbody Bags for Women Straps Underarm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM18.93</x:t>
-  </x:si>
-  <x:si>
-    <x:t>180 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sling Shoulder Bag Women Plain PU Handbag Tote Beg Korean Style Bucket Bag Tangan Wanita 水桶包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM9.60</x:t>
-  </x:si>
-  <x:si>
-    <x:t>416 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GRIMO Malaysia - Ni-ni-cat Enve Sling Women's Handbag Bag Tote Beg Tangan Bags Wanita Lady Perempuan Lawa Gift for Ladies Casual Dinner Cantik Girl Raya Korea Japan Ready Stock Travel Women Ladies Girls New September 2020 fb12811</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM6.89</x:t>
-  </x:si>
-  <x:si>
-    <x:t>535 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2024 Original Japanese Nylon Waterproof Bag Multi pocket Large capacity Student Tote Bag Casual Literary Woman Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM13.41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAVE Knit Handbag Woman Casual Knitted Bag Tote Bag Minimalist Women Bag Mini Wrist Bag Beg Wanita Hadiah Gifts L39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>264 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 46%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tote Bag Eye-catching Design Jute Bags Patterned Design Shopping Bag Cute Canvas Bag Corporate Event Gifts Promotional Bag Tote Beg Murah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>741 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDCA5_ SPACIOUS _xD83D__xDCA5_ Cartoon Felt Handbag Portable Shopping Tote Bag Mommy Baby Diaper Milk Bottle Storage Organizer Bags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.96</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Borong Sling Bag Beg Viral Tangan Wanita Murah Beg Silang Perempuan Handbag Woman Tote Bag Nylon Dumpling Bag饺子斜挎包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.67</x:t>
-  </x:si>
-  <x:si>
-    <x:t>100 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Korean Style Handphone Bag Mobile Phone Bags Three Layer Large Capacity Ladies Flap Shoulder Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>151 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aladdin Exclusive Sling Shoulder Women Wallet Handbag Beg Tangan Dompet Wanita 12W2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM8.59</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.1K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 77%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>【_xD83C__xDDF2__xD83C__xDDFE_Stock 】Dumpling Shoulder Bag Korean Sling Bag Ins Fashion Hip Hop Solid Color Shoulder Bag Casual Nylon Underarm Crossbody Bag 背包 斜挎包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM3.78</x:t>
-  </x:si>
-  <x:si>
-    <x:t>_xD83D__xDD25_【New】Women's Wallet Premium Lady Shoulder Bag PU Leather Crossbody Bags Large Capacity Zipper Long Purse Phone Bag Vintage Solid Color Flap Crossbody Bag Sling Bag Dompet Wanita 女式钱包 单肩包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>61 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>《 _xD835__xDDEA__xD835__xDDD4__xD835__xDDE7__xD835__xDDD8__xD835__xDDE5__xD835__xDDE3__xD835__xDDE5__xD835__xDDE2__xD835__xDDE2__xD835__xDDD9_ 》Laminated Non Woven Fabric Bag Groceries Shopping Tote Bags Reusable Eco Green Handbag Beg Kain 环保手提袋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM1.08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>371 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dumpling bag Uniqlo bag Sling bag Crossbody bag Korean Ins Canvas Bag Female Shoulder Bag nylon bag messenger Bag Women Bag Nylon bag Tote bag Beg Perempuan viral女生背包/斜背包/网红包包 饺子包</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM4.45</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.9K sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jannah Apeh Waist Chest Women Men Sport Sling Bag Running Pouch Crossbody 9P3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>994 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0006 Fashion Hobo Bag Sweet Lady Underarm Ins Style Hand Carry Simple Zip Bag</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RM12.90</x:t>
-  </x:si>
-  <x:si>
-    <x:t>710 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ready Stock Dumpling Bags Handbags Shoulder Bags Messenger Crossbody Bags Leisure Fashion Purses Cute Tote Clutch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>500 sold</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Voucher save 39%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kstyle Women Elegant Fashion Classy Cute Small Simple Shiny Glittery Ultra Light Hard Edge Premium PU Leather Chain Travel Outing Handbag Sling Shoulder Bag Crossbody Bag - 9463</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9.4K sold</x:t>
+    <x:t>UNIQLO Bag Women bag Dumpling Bag Canvas Bag Shoulder Bag Crossbody Bag Sling Bag Beg tangan Perempuan viral女生背包/斜背包水饺包包</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.80</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Voucher save 6%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Japan Canvas Design Tote Bag Handbag Shoulder Beg Sling Bags women mini bag beg wanita mini kecil beg tangan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM2.69</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80 sold</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Women's Sling Bag Fashion Chain Messenger Bag Small Flap Untuk Perempuan Guna Bag Leather Wanita Selempang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM8.46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Large Capacity Small Tote Bag Women's Knitted Handbag Portable Storage Bag Korean Style Solid Color Single Shoulder Bag</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RM5.20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>391 sold</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2158,7 +2182,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
         <x:v>31</x:v>
@@ -2189,41 +2213,41 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>13</x:v>
@@ -2253,390 +2277,393 @@
       <x:c r="C13" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E17" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="E30" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
@@ -2647,30 +2674,30 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2712,30 +2739,30 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>13</x:v>
@@ -2766,7 +2793,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
         <x:v>7</x:v>
@@ -2783,27 +2810,27 @@
         <x:v>143</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
         <x:v>144</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s">
-        <x:v>146</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>147</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
@@ -2837,10 +2864,10 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
         <x:v>155</x:v>
@@ -2848,13 +2875,13 @@
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>137</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
@@ -2871,137 +2898,146 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>182</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>184</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>185</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>186</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>157</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>188</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>12</x:v>
@@ -3010,315 +3046,315 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>138</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>190</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>191</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>193</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>194</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>195</x:v>
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>197</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>198</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>203</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>205</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>207</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>208</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>210</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>211</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>213</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>214</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>215</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>216</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
         <x:v>217</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>218</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>219</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>220</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>222</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>223</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>161</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>225</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>143</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>232</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>233</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>236</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>237</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>240</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>241</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="D41" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>242</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3360,238 +3396,232 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>243</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>244</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>246</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>247</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>250</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>251</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>257</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>254</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>255</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>256</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>261</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>258</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>239</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>262</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>267</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>268</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>278</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>279</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>282</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>284</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>286</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
         <x:v>287</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>288</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>290</x:v>
-      </x:c>
-      <x:c r="E16" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
     </x:row>
@@ -3605,347 +3635,341 @@
       <x:c r="C17" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>295</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>293</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>296</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>297</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>298</x:v>
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>306</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>301</x:v>
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>302</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>303</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>306</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>305</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>307</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>155</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>308</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>304</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>309</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>310</x:v>
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>312</x:v>
-      </x:c>
-      <x:c r="C30" s="0" t="s">
-        <x:v>313</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>314</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E31" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>318</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E32" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E33" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>324</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
         <x:v>325</x:v>
-      </x:c>
-      <x:c r="B35" s="0" t="s">
-        <x:v>326</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>248</x:v>
-      </x:c>
-      <x:c r="D35" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-      <x:c r="E35" s="0" t="s">
-        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>330</x:v>
-      </x:c>
-      <x:c r="D36" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E36" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>339</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>332</x:v>
+        <x:v>340</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>334</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>335</x:v>
+        <x:v>325</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="C38" s="0" t="s">
-        <x:v>338</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>339</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>340</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>341</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>342</x:v>
+        <x:v>346</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>343</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>345</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>346</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>347</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>200</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3987,557 +4011,557 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>348</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>349</x:v>
+        <x:v>353</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>351</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>352</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>353</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>354</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>358</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>356</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>359</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>360</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>361</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>362</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>224</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>363</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>364</x:v>
+        <x:v>367</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>365</x:v>
+        <x:v>368</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>366</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>367</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>368</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>369</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>370</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>371</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E9" s="0" t="s">
-        <x:v>372</x:v>
+        <x:v>375</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>373</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E10" s="0" t="s">
-        <x:v>374</x:v>
+        <x:v>377</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>375</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>376</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>206</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="E11" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>378</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E12" s="0" t="s">
-        <x:v>379</x:v>
+        <x:v>382</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>380</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>384</x:v>
+        <x:v>389</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>385</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>270</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>386</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E15" s="0" t="s">
-        <x:v>387</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>388</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>393</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>390</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>391</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E17" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>392</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>393</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>394</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>395</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>396</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>403</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>404</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>405</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>406</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>344</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E22" s="0" t="s">
-        <x:v>407</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>408</x:v>
+        <x:v>410</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>314</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>415</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>419</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>414</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>381</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E27" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>421</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>424</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>226</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>427</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>428</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>431</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="E32" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>434</x:v>
+        <x:v>436</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>411</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>438</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>439</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
         <x:v>437</x:v>
@@ -4545,118 +4569,112 @@
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>440</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>441</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>440</x:v>
+        <x:v>443</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>445</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-      <x:c r="C37" s="0" t="s">
-        <x:v>444</x:v>
-      </x:c>
-      <x:c r="D37" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E37" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E39" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>452</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>350</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E40" s="0" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="C41" s="0" t="s">
+        <x:v>457</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>456</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4698,631 +4716,643 @@
     </x:row>
     <x:row r="2" spans="1:5">
       <x:c r="A2" s="0" t="s">
-        <x:v>457</x:v>
+        <x:v>459</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>458</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>460</x:v>
+        <x:v>462</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>462</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>164</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="0" t="s">
-        <x:v>463</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>465</x:v>
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s">
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
       <x:c r="A5" s="0" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>468</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="0" t="s">
-        <x:v>468</x:v>
+        <x:v>470</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>469</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>470</x:v>
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="0" t="s">
-        <x:v>471</x:v>
+        <x:v>473</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>461</x:v>
+        <x:v>474</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>472</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
       <x:c r="A8" s="0" t="s">
-        <x:v>473</x:v>
+        <x:v>475</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>474</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>476</x:v>
       </x:c>
       <x:c r="E8" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
       <x:c r="A9" s="0" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>202</x:v>
+        <x:v>479</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>281</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>478</x:v>
-      </x:c>
-      <x:c r="E9" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="0" t="s">
-        <x:v>479</x:v>
+        <x:v>481</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>482</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="E10" s="0" t="s">
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="0" t="s">
-        <x:v>481</x:v>
+        <x:v>484</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>166</x:v>
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>482</x:v>
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="E11" s="0" t="s">
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
       <x:c r="A12" s="0" t="s">
-        <x:v>483</x:v>
+        <x:v>486</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>403</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>488</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
       <x:c r="A13" s="0" t="s">
-        <x:v>484</x:v>
+        <x:v>489</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
       <x:c r="A14" s="0" t="s">
-        <x:v>486</x:v>
+        <x:v>492</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>494</x:v>
       </x:c>
       <x:c r="E14" s="0" t="s">
-        <x:v>485</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
       <x:c r="A15" s="0" t="s">
-        <x:v>487</x:v>
+        <x:v>496</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>488</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>489</x:v>
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
       <x:c r="A16" s="0" t="s">
-        <x:v>490</x:v>
+        <x:v>499</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>491</x:v>
+        <x:v>500</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="E16" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
       <x:c r="A17" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>493</x:v>
+        <x:v>502</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>494</x:v>
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
       <x:c r="A18" s="0" t="s">
-        <x:v>495</x:v>
+        <x:v>504</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>496</x:v>
+        <x:v>505</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>475</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>459</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="E18" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>318</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
       <x:c r="A19" s="0" t="s">
-        <x:v>497</x:v>
+        <x:v>506</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>498</x:v>
+        <x:v>507</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>499</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E19" s="0" t="s">
-        <x:v>238</x:v>
+        <x:v>508</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
       <x:c r="A20" s="0" t="s">
-        <x:v>500</x:v>
+        <x:v>509</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>501</x:v>
+        <x:v>510</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>158</x:v>
+        <x:v>511</x:v>
       </x:c>
       <x:c r="E20" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>345</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
       <x:c r="A21" s="0" t="s">
-        <x:v>502</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>187</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="E21" s="0" t="s">
-        <x:v>248</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
       <x:c r="A22" s="0" t="s">
-        <x:v>504</x:v>
+        <x:v>514</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>503</x:v>
+        <x:v>515</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>505</x:v>
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
       <x:c r="A23" s="0" t="s">
-        <x:v>506</x:v>
+        <x:v>517</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>507</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>398</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="E23" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
       <x:c r="A24" s="0" t="s">
-        <x:v>508</x:v>
+        <x:v>519</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>509</x:v>
+        <x:v>520</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>510</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="E24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
       <x:c r="A25" s="0" t="s">
-        <x:v>511</x:v>
+        <x:v>522</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>523</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>513</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="E25" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="0" t="s">
-        <x:v>514</x:v>
+        <x:v>524</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>515</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>516</x:v>
+        <x:v>525</x:v>
       </x:c>
       <x:c r="E26" s="0" t="s">
-        <x:v>145</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
       <x:c r="A27" s="0" t="s">
-        <x:v>517</x:v>
+        <x:v>526</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>518</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>519</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
       <x:c r="A28" s="0" t="s">
-        <x:v>520</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>529</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>521</x:v>
+        <x:v>530</x:v>
       </x:c>
       <x:c r="E28" s="0" t="s">
-        <x:v>522</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
       <x:c r="A29" s="0" t="s">
-        <x:v>523</x:v>
+        <x:v>531</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>524</x:v>
+        <x:v>532</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>525</x:v>
+        <x:v>533</x:v>
       </x:c>
       <x:c r="E29" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
       <x:c r="A30" s="0" t="s">
-        <x:v>526</x:v>
+        <x:v>534</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>527</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="E30" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>268</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
       <x:c r="A31" s="0" t="s">
-        <x:v>528</x:v>
+        <x:v>537</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>529</x:v>
+        <x:v>538</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>530</x:v>
+        <x:v>539</x:v>
       </x:c>
       <x:c r="E31" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
       <x:c r="A32" s="0" t="s">
-        <x:v>531</x:v>
+        <x:v>540</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>183</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>532</x:v>
+        <x:v>541</x:v>
+      </x:c>
+      <x:c r="E32" s="0" t="s">
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
       <x:c r="A33" s="0" t="s">
-        <x:v>533</x:v>
+        <x:v>542</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>534</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
-        <x:v>535</x:v>
+        <x:v>543</x:v>
       </x:c>
       <x:c r="E33" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:5">
       <x:c r="A34" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>544</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>538</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>249</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D34" s="0" t="s">
-        <x:v>245</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="E34" s="0" t="s">
-        <x:v>139</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="0" t="s">
-        <x:v>539</x:v>
+        <x:v>546</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>252</x:v>
+        <x:v>547</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
-        <x:v>540</x:v>
+        <x:v>548</x:v>
       </x:c>
       <x:c r="E35" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="0" t="s">
-        <x:v>541</x:v>
+        <x:v>549</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>542</x:v>
+        <x:v>550</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D36" s="0" t="s">
-        <x:v>543</x:v>
+        <x:v>551</x:v>
       </x:c>
       <x:c r="E36" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="0" t="s">
-        <x:v>544</x:v>
+        <x:v>552</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>553</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D37" s="0" t="s">
-        <x:v>546</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="E37" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="0" t="s">
-        <x:v>547</x:v>
+        <x:v>554</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>555</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>397</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D38" s="0" t="s">
-        <x:v>548</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E38" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>556</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5">
       <x:c r="A39" s="0" t="s">
-        <x:v>549</x:v>
+        <x:v>557</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>550</x:v>
+        <x:v>558</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="D39" s="0" t="s">
-        <x:v>551</x:v>
-      </x:c>
-      <x:c r="E39" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:5">
       <x:c r="A40" s="0" t="s">
-        <x:v>552</x:v>
+        <x:v>560</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>464</x:v>
+        <x:v>561</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="D40" s="0" t="s">
-        <x:v>553</x:v>
-      </x:c>
-      <x:c r="E40" s="0" t="s">
-        <x:v>554</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
       <x:c r="A41" s="0" t="s">
-        <x:v>555</x:v>
+        <x:v>562</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>563</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
-        <x:v>556</x:v>
+        <x:v>564</x:v>
       </x:c>
       <x:c r="E41" s="0" t="s">
-        <x:v>357</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
